--- a/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -679,6 +679,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1054,10 +1058,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomRight" activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3167" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{245F70FF-5FA6-4685-94DA-A0CC66EF1B63}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2280" yWindow="2270" windowWidth="16470" windowHeight="8530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J167" sqref="J167"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3167" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{245F70FF-5FA6-4685-94DA-A0CC66EF1B63}"/>
+  <xr:revisionPtr revIDLastSave="3189" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B53696-E90B-497F-B95A-F96421AE2809}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2280" yWindow="2270" windowWidth="16470" windowHeight="8530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="136">
   <si>
     <t>Treatment</t>
   </si>
@@ -312,12 +312,6 @@
     <t>These appear to have been pinned by someone else - which explains the descrepancy between 0 and 9</t>
   </si>
   <si>
-    <t>Someone incorrectly labelled this one - making it impossible to distinguish from F(45/4)</t>
-  </si>
-  <si>
-    <t>Someone incorrectly labelled this one - making it impossible to distinguish from F(50/9)</t>
-  </si>
-  <si>
     <t>Notes_Aaron</t>
   </si>
   <si>
@@ -560,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,6 +655,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1030,22 +1033,22 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1058,10 +1061,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -1159,16 +1162,16 @@
         <v>62</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>74</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S1" s="23" t="s">
         <v>81</v>
@@ -1422,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
@@ -1666,151 +1669,151 @@
         <v>9</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BH9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
@@ -1990,155 +1993,155 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
@@ -2613,151 +2616,151 @@
         <v>9</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AX23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BC23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BF23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BH23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
@@ -3093,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="18" t="s">
@@ -3571,151 +3574,151 @@
         <v>9</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
@@ -4096,151 +4099,151 @@
         <v>9</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AX47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BF47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BH47" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
@@ -6640,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A97" s="27">
         <v>44755</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A98" s="27">
         <v>44769</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A99" s="27">
         <v>44769</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A100" s="27">
         <v>44769</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A101" s="27">
         <v>44769</v>
       </c>
@@ -6870,189 +6873,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:60" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="29">
+    <row r="102" spans="1:58" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="35">
         <v>44769</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="35">
         <v>44784</v>
       </c>
-      <c r="C102" s="11" t="str">
+      <c r="C102" s="36" t="str">
         <f t="shared" si="12"/>
         <v>F(45/4)</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="36">
         <v>4</v>
       </c>
-      <c r="E102" s="12" t="str">
+      <c r="E102" s="37" t="str">
         <f t="shared" si="13"/>
         <v>4_4</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="11">
+      <c r="F102" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="36">
         <v>45</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="36">
         <v>4</v>
       </c>
-      <c r="I102" s="11">
-        <v>0</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K102" s="11"/>
-      <c r="L102" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="P102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="T102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="U102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="V102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="W102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="X102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BG102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BH102" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I102" s="36">
+        <v>0</v>
+      </c>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A103" s="27">
         <v>44769</v>
       </c>
@@ -7101,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A104" s="27">
         <v>44769</v>
       </c>
@@ -7168,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A105" s="27">
         <v>44769</v>
       </c>
@@ -7217,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A106" s="27">
         <v>44769</v>
       </c>
@@ -7269,189 +7126,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:60" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="29">
+    <row r="107" spans="1:58" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="35">
         <v>44769</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B107" s="35">
         <v>44784</v>
       </c>
-      <c r="C107" s="11" t="str">
+      <c r="C107" s="36" t="str">
         <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="36">
         <v>4</v>
       </c>
-      <c r="E107" s="12" t="str">
+      <c r="E107" s="37" t="str">
         <f t="shared" si="13"/>
         <v>4_9</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="11">
+      <c r="F107" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="36">
         <v>50</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="36">
         <v>9</v>
       </c>
-      <c r="I107" s="11">
-        <v>0</v>
-      </c>
-      <c r="J107" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K107" s="11"/>
-      <c r="L107" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="P107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="T107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="U107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="V107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="W107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="X107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BG107" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BH107" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I107" s="36">
+        <v>0</v>
+      </c>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M107" s="37">
+        <v>4</v>
+      </c>
+      <c r="N107" s="4">
+        <f>SUM(P107:BH107)</f>
+        <v>4</v>
+      </c>
+      <c r="AL107" s="37">
+        <v>3</v>
+      </c>
+      <c r="AR107" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A108" s="27">
         <v>44769</v>
       </c>
@@ -7503,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A109" s="27">
         <v>44769</v>
       </c>
@@ -7569,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A110" s="27">
         <v>44769</v>
       </c>
@@ -7624,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A111" s="27">
         <v>44769</v>
       </c>
@@ -7673,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A112" s="27">
         <v>44769</v>
       </c>
@@ -11559,11 +11283,11 @@
         <v>0</v>
       </c>
       <c r="J190" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K190" s="17"/>
       <c r="L190" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N190" s="18">
         <f t="shared" si="20"/>
@@ -11808,25 +11532,25 @@
         <v>85</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>86</v>
       </c>
       <c r="P1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -12118,31 +11842,31 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -12285,31 +12009,31 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -12677,31 +12401,31 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -13305,31 +13029,31 @@
         <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -13634,31 +13358,31 @@
         <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -15779,31 +15503,31 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -15982,31 +15706,31 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -19376,16 +19100,16 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19686,16 +19410,16 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -19844,16 +19568,16 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -20227,16 +19951,16 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -20851,16 +20575,16 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -21162,16 +20886,16 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -23261,16 +22985,16 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -23453,16 +23177,16 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -26876,64 +26600,64 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="R1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="AC1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="AD1" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>
@@ -27426,64 +27150,64 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -27716,64 +27440,64 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -28392,64 +28116,64 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -29457,64 +29181,64 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
@@ -30015,64 +29739,64 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
@@ -33565,64 +33289,64 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
@@ -33921,64 +33645,64 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>

--- a/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3189" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B53696-E90B-497F-B95A-F96421AE2809}"/>
+  <xr:revisionPtr revIDLastSave="3190" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E73492C-0540-4E44-A322-E9FD7095A84F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>CollectionInterval_PNRCode</t>
-  </si>
-  <si>
-    <t>Pterosichus_tristis</t>
   </si>
   <si>
     <t>Beetle_vial_examined_Y_or_N</t>
@@ -449,6 +446,9 @@
   <si>
     <t>This document is the source for Carabidae and Silphidae species counts for Powdermill 2022. However, for total beetle counts, the correct Excel file is on Teams</t>
   </si>
+  <si>
+    <t>Pterostichus_tristis</t>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,15 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -993,10 +984,10 @@
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -1033,22 +1024,22 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1061,10 +1052,10 @@
   <dimension ref="A1:BH193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O106" sqref="O106"/>
+      <selection pane="bottomRight" activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,157 +1138,157 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="O1" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="AP1" s="23" t="s">
         <v>23</v>
       </c>
       <c r="AQ1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AV1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AW1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="AX1" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AY1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ1" s="24" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="BA1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BD1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BF1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="BG1" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH1" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
@@ -1331,11 +1322,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="4">
         <v>2</v>
@@ -1381,7 +1372,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="4">
         <v>1</v>
@@ -1425,11 +1416,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -1477,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -1523,7 +1514,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="4">
         <v>2</v>
@@ -1572,7 +1563,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="4">
         <v>6</v>
@@ -1624,7 +1615,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -1669,151 +1660,151 @@
         <v>9</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BH9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
@@ -1849,7 +1840,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="4">
         <v>4</v>
@@ -1900,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -1943,7 +1934,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="4">
         <v>5</v>
@@ -1993,155 +1984,155 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
@@ -2177,7 +2168,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
@@ -2226,7 +2217,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -2269,7 +2260,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="4">
         <v>7</v>
@@ -2327,7 +2318,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -2372,7 +2363,7 @@
         <v>8</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -2417,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2460,7 +2451,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" s="4">
         <v>7</v>
@@ -2517,7 +2508,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -2558,11 +2549,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" s="4">
         <v>3</v>
@@ -2616,151 +2607,151 @@
         <v>9</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BH23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
@@ -2796,7 +2787,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="4">
         <v>5</v>
@@ -2853,7 +2844,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M25" s="4">
         <v>4</v>
@@ -2907,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
@@ -2948,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="4">
         <v>1</v>
@@ -3002,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="4"/>
@@ -3043,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M29" s="4">
         <v>2</v>
@@ -3096,11 +3087,11 @@
         <v>0</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="18">
         <v>5</v>
@@ -3152,7 +3143,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M31" s="4">
         <v>1</v>
@@ -3198,7 +3189,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" s="4">
         <v>6</v>
@@ -3259,7 +3250,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="4">
         <v>5</v>
@@ -3309,11 +3300,11 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -3371,7 +3362,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M35" s="4">
         <v>4</v>
@@ -3420,7 +3411,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N36" s="4">
         <f t="shared" si="4"/>
@@ -3477,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N37" s="4">
         <f t="shared" si="4"/>
@@ -3523,7 +3514,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M38" s="4">
         <v>2</v>
@@ -3574,151 +3565,151 @@
         <v>9</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
@@ -3754,7 +3745,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
@@ -3795,11 +3786,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M41" s="4">
         <v>9</v>
@@ -3854,7 +3845,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" si="7"/>
@@ -3903,7 +3894,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="7"/>
@@ -3949,7 +3940,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M44" s="4">
         <v>4</v>
@@ -4006,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
@@ -4051,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M46" s="4">
         <v>1</v>
@@ -4099,151 +4090,151 @@
         <v>9</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AP47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BH47" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
@@ -4279,7 +4270,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -4324,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M49" s="4">
         <v>2</v>
@@ -4373,7 +4364,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N50" s="4">
         <f t="shared" si="8"/>
@@ -4419,7 +4410,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N51" s="4">
         <f t="shared" si="8"/>
@@ -4462,7 +4453,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N52" s="4">
         <f t="shared" si="8"/>
@@ -4505,7 +4496,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N53" s="4">
         <f t="shared" si="8"/>
@@ -4554,7 +4545,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M54" s="4">
         <v>3</v>
@@ -4606,7 +4597,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N55" s="4">
         <f t="shared" si="8"/>
@@ -4655,7 +4646,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="4">
@@ -4705,7 +4696,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N57" s="4">
         <f t="shared" si="8"/>
@@ -4745,7 +4736,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N58" s="4">
         <f t="shared" si="8"/>
@@ -4797,7 +4788,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N59" s="4">
         <f t="shared" si="8"/>
@@ -4840,7 +4831,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N60" s="4">
         <f t="shared" si="8"/>
@@ -4901,7 +4892,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N61" s="4">
         <f t="shared" si="8"/>
@@ -4965,7 +4956,7 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N62" s="4">
         <f t="shared" si="8"/>
@@ -5011,7 +5002,7 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N63" s="4">
         <f t="shared" si="8"/>
@@ -5057,7 +5048,7 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N64" s="4">
         <f t="shared" si="8"/>
@@ -5103,7 +5094,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N65" s="4">
         <f t="shared" si="8"/>
@@ -5158,7 +5149,7 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N66" s="4">
         <f t="shared" si="8"/>
@@ -5210,7 +5201,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N67" s="4">
         <f t="shared" si="8"/>
@@ -5253,7 +5244,7 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N68" s="4">
         <f t="shared" si="8"/>
@@ -5299,7 +5290,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N69" s="4">
         <f t="shared" si="8"/>
@@ -5342,7 +5333,7 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
@@ -5385,7 +5376,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N71" s="4">
         <f t="shared" si="8"/>
@@ -5437,7 +5428,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N72" s="4">
         <f t="shared" si="8"/>
@@ -5485,7 +5476,7 @@
         <v>8</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N73" s="4">
         <f t="shared" si="8"/>
@@ -5534,7 +5525,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N74" s="4">
         <f t="shared" si="8"/>
@@ -5586,7 +5577,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N75" s="4">
         <f t="shared" si="8"/>
@@ -5632,7 +5623,7 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N76" s="4">
         <f t="shared" si="8"/>
@@ -5682,11 +5673,11 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M77" s="4">
         <v>3</v>
@@ -5735,7 +5726,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N78" s="4">
         <f t="shared" si="8"/>
@@ -5776,11 +5767,11 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N79" s="4">
         <f t="shared" si="8"/>
@@ -5829,7 +5820,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N80" s="4">
         <f t="shared" ref="N80:N101" si="11">SUM(P80:BH80)</f>
@@ -5875,7 +5866,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N81" s="4">
         <f t="shared" si="11"/>
@@ -5924,7 +5915,7 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N82" s="4">
         <f t="shared" si="11"/>
@@ -5973,7 +5964,7 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N83" s="4">
         <f t="shared" si="11"/>
@@ -6016,7 +6007,7 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N84" s="4">
         <f t="shared" si="11"/>
@@ -6065,7 +6056,7 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N85" s="4">
         <f t="shared" si="11"/>
@@ -6105,7 +6096,7 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N86" s="4">
         <f t="shared" si="11"/>
@@ -6151,7 +6142,7 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M87" s="4">
         <v>9</v>
@@ -6212,7 +6203,7 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N88" s="4">
         <f t="shared" si="11"/>
@@ -6267,7 +6258,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N89" s="4">
         <f t="shared" si="11"/>
@@ -6316,7 +6307,7 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N90" s="4">
         <f t="shared" si="11"/>
@@ -6371,7 +6362,7 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N91" s="4">
         <f t="shared" si="11"/>
@@ -6420,7 +6411,7 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N92" s="4">
         <f t="shared" si="11"/>
@@ -6470,11 +6461,11 @@
         <v>0</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N93" s="4">
         <f t="shared" si="11"/>
@@ -6520,7 +6511,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N94" s="4">
         <f t="shared" si="11"/>
@@ -6566,7 +6557,7 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N95" s="4">
         <f t="shared" si="11"/>
@@ -6624,7 +6615,7 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N96" s="4">
         <f t="shared" si="11"/>
@@ -6676,7 +6667,7 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N97" s="4">
         <f t="shared" si="11"/>
@@ -6722,7 +6713,7 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N98" s="4">
         <f t="shared" si="11"/>
@@ -6777,7 +6768,7 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N99" s="4">
         <f t="shared" si="11"/>
@@ -6820,7 +6811,7 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N100" s="4">
         <f t="shared" si="11"/>
@@ -6863,7 +6854,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N101" s="4">
         <f t="shared" si="11"/>
@@ -6873,40 +6864,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:58" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="35">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A102" s="27">
         <v>44769</v>
       </c>
-      <c r="B102" s="35">
+      <c r="B102" s="27">
         <v>44784</v>
       </c>
-      <c r="C102" s="36" t="str">
+      <c r="C102" s="6" t="str">
         <f t="shared" si="12"/>
         <v>F(45/4)</v>
       </c>
-      <c r="D102" s="36">
+      <c r="D102" s="6">
         <v>4</v>
       </c>
-      <c r="E102" s="37" t="str">
+      <c r="E102" s="4" t="str">
         <f t="shared" si="13"/>
         <v>4_4</v>
       </c>
-      <c r="F102" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="36">
+      <c r="F102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="6">
         <v>45</v>
       </c>
-      <c r="H102" s="36">
+      <c r="H102" s="6">
         <v>4</v>
       </c>
-      <c r="I102" s="36">
-        <v>0</v>
-      </c>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="37" t="s">
-        <v>59</v>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.35">
@@ -6942,7 +6933,7 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N103" s="4">
         <f>SUM(P103:BH103)</f>
@@ -6991,7 +6982,7 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N104" s="4">
         <f>SUM(P104:BH104)</f>
@@ -7058,7 +7049,7 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N105" s="4">
         <f>SUM(P105:BH105)</f>
@@ -7107,7 +7098,7 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N106" s="4">
         <f>SUM(P106:BH106)</f>
@@ -7126,52 +7117,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:58" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="35">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A107" s="27">
         <v>44769</v>
       </c>
-      <c r="B107" s="35">
+      <c r="B107" s="27">
         <v>44784</v>
       </c>
-      <c r="C107" s="36" t="str">
+      <c r="C107" s="6" t="str">
         <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
-      <c r="D107" s="36">
+      <c r="D107" s="6">
         <v>4</v>
       </c>
-      <c r="E107" s="37" t="str">
+      <c r="E107" s="4" t="str">
         <f t="shared" si="13"/>
         <v>4_9</v>
       </c>
-      <c r="F107" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="36">
+      <c r="F107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="6">
         <v>50</v>
       </c>
-      <c r="H107" s="36">
+      <c r="H107" s="6">
         <v>9</v>
       </c>
-      <c r="I107" s="36">
-        <v>0</v>
-      </c>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M107" s="37">
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M107" s="4">
         <v>4</v>
       </c>
       <c r="N107" s="4">
         <f>SUM(P107:BH107)</f>
         <v>4</v>
       </c>
-      <c r="AL107" s="37">
+      <c r="AL107" s="4">
         <v>3</v>
       </c>
-      <c r="AR107" s="37">
+      <c r="AR107" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7208,7 +7199,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M108" s="4">
         <v>3</v>
@@ -7258,11 +7249,11 @@
         <v>0</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M109" s="4">
         <v>16</v>
@@ -7326,7 +7317,7 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N110" s="4">
         <f t="shared" si="14"/>
@@ -7381,7 +7372,7 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N111" s="4">
         <f t="shared" si="14"/>
@@ -7430,7 +7421,7 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N112" s="4">
         <f t="shared" si="14"/>
@@ -7473,7 +7464,7 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N113" s="4">
         <f t="shared" si="14"/>
@@ -7513,7 +7504,7 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N114" s="4">
         <f t="shared" si="14"/>
@@ -7574,7 +7565,7 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N115" s="4">
         <f t="shared" si="14"/>
@@ -7620,7 +7611,7 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M116" s="4">
         <v>1</v>
@@ -7666,7 +7657,7 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N117" s="4">
         <f t="shared" si="14"/>
@@ -7715,7 +7706,7 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N118" s="4">
         <f t="shared" si="14"/>
@@ -7767,7 +7758,7 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N119" s="4">
         <f t="shared" si="14"/>
@@ -7810,7 +7801,7 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N120" s="4">
         <f t="shared" si="14"/>
@@ -7865,7 +7856,7 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N121" s="4">
         <f t="shared" si="14"/>
@@ -7920,7 +7911,7 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M122" s="4">
         <v>2</v>
@@ -7966,7 +7957,7 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M123" s="4">
         <v>1</v>
@@ -8012,7 +8003,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N124" s="4">
         <f t="shared" si="14"/>
@@ -8055,7 +8046,7 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N125" s="4">
         <f t="shared" si="14"/>
@@ -8101,7 +8092,7 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M126" s="4">
         <v>2</v>
@@ -8152,7 +8143,7 @@
         <v>11</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M127" s="4">
         <v>4</v>
@@ -8207,7 +8198,7 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M128" s="4">
         <v>10</v>
@@ -8265,7 +8256,7 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M129" s="4">
         <v>6</v>
@@ -8320,7 +8311,7 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M130" s="4">
         <v>11</v>
@@ -8369,7 +8360,7 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M131" s="4">
         <v>2</v>
@@ -8418,7 +8409,7 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N132" s="4">
         <f t="shared" si="14"/>
@@ -8467,7 +8458,7 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M133" s="4">
         <v>7</v>
@@ -8525,7 +8516,7 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M134" s="4">
         <v>4</v>
@@ -8580,7 +8571,7 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
@@ -8623,7 +8614,7 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M136" s="4">
         <v>2</v>
@@ -8672,7 +8663,7 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M137" s="4">
         <v>0</v>
@@ -8715,7 +8706,7 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M138" s="4">
         <v>1</v>
@@ -8761,7 +8752,7 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M139" s="4">
         <v>3</v>
@@ -8813,7 +8804,7 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M140" s="4">
         <v>3</v>
@@ -8862,7 +8853,7 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M141" s="4">
         <v>3</v>
@@ -8911,7 +8902,7 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N142" s="4">
         <f t="shared" si="17"/>
@@ -8960,7 +8951,7 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M143" s="4">
         <v>8</v>
@@ -9015,7 +9006,7 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M144" s="4">
         <v>5</v>
@@ -9067,7 +9058,7 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M145" s="4">
         <v>9</v>
@@ -9125,7 +9116,7 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M146" s="4">
         <v>2</v>
@@ -9174,7 +9165,7 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
@@ -9217,7 +9208,7 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N148" s="4">
         <f t="shared" si="17"/>
@@ -9263,7 +9254,7 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N149" s="4">
         <f t="shared" si="17"/>
@@ -9309,7 +9300,7 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M150" s="4">
         <v>2</v>
@@ -9355,7 +9346,7 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N151" s="4">
         <f t="shared" si="17"/>
@@ -9419,7 +9410,7 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M152" s="4">
         <v>4</v>
@@ -9471,7 +9462,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N153" s="4">
         <f t="shared" si="17"/>
@@ -9523,7 +9514,7 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M154" s="4">
         <v>4</v>
@@ -9572,7 +9563,7 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N155" s="4">
         <f t="shared" si="17"/>
@@ -9615,7 +9606,7 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M156" s="4">
         <v>5</v>
@@ -9670,7 +9661,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N157" s="4">
         <f t="shared" si="17"/>
@@ -9731,7 +9722,7 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N158" s="4">
         <f t="shared" si="17"/>
@@ -9777,7 +9768,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N159" s="4">
         <f t="shared" si="17"/>
@@ -9817,7 +9808,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N160" s="4">
         <f t="shared" si="17"/>
@@ -9857,7 +9848,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N161" s="4">
         <f t="shared" si="17"/>
@@ -9906,7 +9897,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N162" s="4">
         <f t="shared" si="17"/>
@@ -9952,7 +9943,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N163" s="4">
         <f t="shared" si="17"/>
@@ -9998,7 +9989,7 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N164" s="4">
         <f t="shared" si="17"/>
@@ -10041,7 +10032,7 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N165" s="4">
         <f t="shared" si="17"/>
@@ -10087,7 +10078,7 @@
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M166" s="4">
         <v>2</v>
@@ -10131,11 +10122,11 @@
         <v>0</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K167" s="6"/>
       <c r="L167" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M167" s="4">
         <v>0</v>
@@ -10178,7 +10169,7 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N168" s="4">
         <f t="shared" si="17"/>
@@ -10233,7 +10224,7 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N169" s="4">
         <f t="shared" si="17"/>
@@ -10285,7 +10276,7 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N170" s="4">
         <f t="shared" si="17"/>
@@ -10331,7 +10322,7 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N171" s="4">
         <f t="shared" si="17"/>
@@ -10380,7 +10371,7 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
       <c r="L172" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N172" s="4">
         <f t="shared" ref="N172:N193" si="20">SUM(P172:BH172)</f>
@@ -10423,7 +10414,7 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N173" s="4">
         <f t="shared" si="20"/>
@@ -10469,7 +10460,7 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
       <c r="L174" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N174" s="4">
         <f t="shared" si="20"/>
@@ -10512,7 +10503,7 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
       <c r="L175" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N175" s="4">
         <f t="shared" si="20"/>
@@ -10564,7 +10555,7 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
       <c r="L176" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N176" s="4">
         <f t="shared" si="20"/>
@@ -10612,7 +10603,7 @@
         <v>12</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N177" s="4">
         <f t="shared" si="20"/>
@@ -10661,7 +10652,7 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N178" s="4">
         <f t="shared" si="20"/>
@@ -10715,7 +10706,7 @@
         <v>12</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N179" s="4">
         <f t="shared" si="20"/>
@@ -10758,7 +10749,7 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M180" s="4">
         <v>4</v>
@@ -10813,7 +10804,7 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M181" s="4">
         <v>12</v>
@@ -10868,7 +10859,7 @@
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N182" s="4">
         <f t="shared" si="20"/>
@@ -10929,7 +10920,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N183" s="4">
         <f t="shared" si="20"/>
@@ -10975,7 +10966,7 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N184" s="4">
         <f t="shared" si="20"/>
@@ -11027,7 +11018,7 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N185" s="4">
         <f t="shared" si="20"/>
@@ -11076,7 +11067,7 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N186" s="4">
         <f t="shared" si="20"/>
@@ -11125,7 +11116,7 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N187" s="4">
         <f t="shared" si="20"/>
@@ -11179,7 +11170,7 @@
         <v>13</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N188" s="4">
         <f t="shared" si="20"/>
@@ -11233,7 +11224,7 @@
         <v>12</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N189" s="4">
         <f t="shared" si="20"/>
@@ -11283,11 +11274,11 @@
         <v>0</v>
       </c>
       <c r="J190" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K190" s="17"/>
       <c r="L190" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N190" s="18">
         <f t="shared" si="20"/>
@@ -11340,11 +11331,11 @@
         <v>0</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K191" s="6"/>
       <c r="L191" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M191" s="4">
         <v>11</v>
@@ -11402,7 +11393,7 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N192" s="4">
         <f t="shared" si="20"/>
@@ -11448,7 +11439,7 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N193" s="4">
         <f t="shared" si="20"/>
@@ -11526,31 +11517,31 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>101</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -11842,31 +11833,31 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -12009,31 +12000,31 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -12401,31 +12392,31 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -13029,31 +13020,31 @@
         <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -13358,31 +13349,31 @@
         <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -15503,31 +15494,31 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -15706,31 +15697,31 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -19100,16 +19091,16 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19410,16 +19401,16 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -19568,16 +19559,16 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -19951,16 +19942,16 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -20575,16 +20566,16 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -20886,16 +20877,16 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -22985,16 +22976,16 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -23177,16 +23168,16 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -26600,64 +26591,64 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>
@@ -27150,64 +27141,64 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -27440,64 +27431,64 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -28116,64 +28107,64 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -29181,64 +29172,64 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
@@ -29739,64 +29730,64 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
@@ -33289,64 +33280,64 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
@@ -33645,64 +33636,64 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>

--- a/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3197" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C62C31-8AFF-49FB-8520-5A5D9D241A9B}"/>
+  <xr:revisionPtr revIDLastSave="3210" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F961FF45-6F97-4C0F-8AC4-0FEB48A1C765}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>Anisodactylus_nigerrimus</t>
   </si>
   <si>
-    <t>Olisthopus_unknown_likely_parmatus</t>
-  </si>
-  <si>
     <t>Harpalus_spadiceus</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>Total_pinned_Scarab_beetles</t>
   </si>
   <si>
-    <t>Amarini_unknown</t>
-  </si>
-  <si>
     <t>Amerizus_unknown</t>
   </si>
   <si>
@@ -448,6 +442,12 @@
   </si>
   <si>
     <t>Anisodactylus_harrisii</t>
+  </si>
+  <si>
+    <t>Olisthopus_parmatus</t>
+  </si>
+  <si>
+    <t>Pseudamara_arenaria</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1024,22 +1024,22 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1051,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
   <dimension ref="A1:BH193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="AO41" sqref="AO41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,23 +1073,24 @@
     <col min="13" max="13" width="14.6328125" style="4" customWidth="1"/>
     <col min="14" max="14" width="15.81640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.54296875" style="4" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.08984375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.54296875" style="4" customWidth="1"/>
-    <col min="20" max="21" width="12.36328125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.1796875" style="4" customWidth="1"/>
-    <col min="25" max="26" width="14" style="4" customWidth="1"/>
-    <col min="27" max="28" width="9.453125" style="4" customWidth="1"/>
-    <col min="29" max="30" width="8.6328125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="9.6328125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="13.453125" style="4" customWidth="1"/>
-    <col min="34" max="34" width="6.6328125" style="4" customWidth="1"/>
-    <col min="35" max="36" width="11.6328125" style="4" customWidth="1"/>
-    <col min="37" max="37" width="9.6328125" style="4" customWidth="1"/>
-    <col min="38" max="41" width="9.453125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12.36328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.7265625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" style="4" customWidth="1"/>
+    <col min="24" max="25" width="14" style="4" customWidth="1"/>
+    <col min="26" max="27" width="9.453125" style="4" customWidth="1"/>
+    <col min="28" max="29" width="8.6328125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="8.7265625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="9.6328125" style="4" customWidth="1"/>
+    <col min="32" max="32" width="13.453125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="6.6328125" style="4" customWidth="1"/>
+    <col min="34" max="35" width="11.6328125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="9.6328125" style="4" customWidth="1"/>
+    <col min="37" max="40" width="9.453125" style="4" customWidth="1"/>
+    <col min="41" max="41" width="12.7265625" style="4" customWidth="1"/>
     <col min="42" max="43" width="12.81640625" style="4" customWidth="1"/>
     <col min="44" max="44" width="12.54296875" style="4" customWidth="1"/>
     <col min="45" max="46" width="12.26953125" style="4" customWidth="1"/>
@@ -1137,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -1152,85 +1153,85 @@
         <v>61</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>73</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="AP1" s="23" t="s">
         <v>23</v>
@@ -1263,7 +1264,7 @@
         <v>28</v>
       </c>
       <c r="AZ1" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BA1" s="24" t="s">
         <v>53</v>
@@ -1331,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N8" si="2">SUM(P2:BH2)</f>
+        <f>SUM(P2:BH2)</f>
         <v>2</v>
       </c>
       <c r="BF2" s="4">
@@ -1377,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(P3:BH3)</f>
         <v>1</v>
       </c>
       <c r="BB3" s="4">
@@ -1415,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
@@ -1425,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(P4:BH4)</f>
         <v>1</v>
       </c>
       <c r="BH4" s="4">
@@ -1473,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(P5:BH5)</f>
         <v>1</v>
       </c>
       <c r="AV5" s="4">
@@ -1519,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(P6:BH6)</f>
         <v>2</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AC6" s="4">
         <v>1</v>
       </c>
       <c r="BF6" s="4">
@@ -1568,10 +1569,10 @@
         <v>6</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(P7:BH7)</f>
         <v>6</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AB7" s="4">
         <v>3</v>
       </c>
       <c r="AR7" s="4">
@@ -1620,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(P8:BH8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1659,151 +1660,151 @@
         <v>9</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BG9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BH9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
@@ -1851,7 +1852,7 @@
       <c r="P10" s="4">
         <v>3</v>
       </c>
-      <c r="X10" s="4">
+      <c r="W10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1942,7 +1943,7 @@
         <f>SUM(P12:BH12)</f>
         <v>5</v>
       </c>
-      <c r="X12" s="4">
+      <c r="W12" s="4">
         <v>1</v>
       </c>
       <c r="AU12" s="4">
@@ -1983,155 +1984,155 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
@@ -2173,13 +2174,13 @@
         <v>2</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" ref="N14:N22" si="3">SUM(P14:BH14)</f>
+        <f>SUM(P14:BH14)</f>
         <v>1</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AD14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2222,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P15:BH15)</f>
         <v>0</v>
       </c>
     </row>
@@ -2265,13 +2266,13 @@
         <v>7</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P16:BH16)</f>
         <v>7</v>
       </c>
-      <c r="V16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="4">
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4">
         <v>1</v>
       </c>
       <c r="AU16" s="4">
@@ -2323,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P17:BH17)</f>
         <v>0</v>
       </c>
     </row>
@@ -2368,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P18:BH18)</f>
         <v>0</v>
       </c>
     </row>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P19:BH19)</f>
         <v>0</v>
       </c>
     </row>
@@ -2456,13 +2457,13 @@
         <v>7</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P20:BH20)</f>
         <v>7</v>
       </c>
-      <c r="W20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="4">
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="4">
         <v>1</v>
       </c>
       <c r="AV20" s="4">
@@ -2513,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P21:BH21)</f>
         <v>0</v>
       </c>
     </row>
@@ -2558,10 +2559,10 @@
         <v>3</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(P22:BH22)</f>
         <v>3</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AC22" s="4">
         <v>1</v>
       </c>
       <c r="AV22" s="4">
@@ -2606,151 +2607,151 @@
         <v>9</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BH23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
@@ -2792,19 +2793,19 @@
         <v>5</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:N38" si="4">SUM(P24:BH24)</f>
-        <v>5</v>
-      </c>
-      <c r="V24" s="4">
-        <v>1</v>
+        <f>SUM(P24:BH24)</f>
+        <v>5</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>2</v>
       </c>
       <c r="AC24" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2849,7 +2850,7 @@
         <v>4</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P25:BH25)</f>
         <v>4</v>
       </c>
       <c r="AU25" s="4">
@@ -2903,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P26:BH26)</f>
         <v>0</v>
       </c>
     </row>
@@ -2950,10 +2951,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
+        <f>SUM(P27:BH27)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2995,7 +2996,7 @@
         <v>58</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P28:BH28)</f>
         <v>1</v>
       </c>
       <c r="BF28" s="4">
@@ -3045,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P29:BH29)</f>
         <v>2</v>
       </c>
-      <c r="W29" s="4">
+      <c r="V29" s="4">
         <v>1</v>
       </c>
       <c r="AV29" s="4">
@@ -3086,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="18" t="s">
@@ -3096,10 +3097,10 @@
         <v>5</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(P30:BH30)</f>
         <v>4</v>
       </c>
-      <c r="AD30" s="18">
+      <c r="AC30" s="18">
         <v>1</v>
       </c>
       <c r="AR30" s="18">
@@ -3148,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P31:BH31)</f>
         <v>1</v>
       </c>
       <c r="AU31" s="4">
@@ -3194,16 +3195,16 @@
         <v>6</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P32:BH32)</f>
         <v>6</v>
       </c>
-      <c r="V32" s="4">
-        <v>1</v>
-      </c>
-      <c r="X32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="4">
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="4">
         <v>1</v>
       </c>
       <c r="AU32" s="4">
@@ -3255,13 +3256,13 @@
         <v>5</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="W33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="4">
+        <f>SUM(P33:BH33)</f>
+        <v>5</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="4">
         <v>3</v>
       </c>
       <c r="AV33" s="4">
@@ -3276,14 +3277,14 @@
         <v>44741</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f t="shared" ref="C34:C65" si="5">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
+        <f t="shared" ref="C34:C65" si="2">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" ref="E34:E65" si="6">_xlfn.CONCAT(D34,"_",H34)</f>
+        <f t="shared" ref="E34:E65" si="3">_xlfn.CONCAT(D34,"_",H34)</f>
         <v>2_8</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -3299,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
@@ -3309,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P34:BH34)</f>
         <v>9</v>
       </c>
-      <c r="U34" s="4">
-        <v>1</v>
-      </c>
-      <c r="X34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="4">
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="4">
         <v>1</v>
       </c>
       <c r="AY34" s="4">
@@ -3336,14 +3337,14 @@
         <v>44741</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(50/9)</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_9</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -3367,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P35:BH35)</f>
         <v>4</v>
       </c>
       <c r="AR35" s="4">
@@ -3385,14 +3386,14 @@
         <v>44741</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(51/10)</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_10</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -3413,16 +3414,16 @@
         <v>58</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P36:BH36)</f>
         <v>7</v>
       </c>
-      <c r="X36" s="4">
+      <c r="W36" s="4">
         <v>3</v>
       </c>
-      <c r="Z36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="4">
+      <c r="Y36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="4">
         <v>1</v>
       </c>
       <c r="AU36" s="4">
@@ -3440,14 +3441,14 @@
         <v>44741</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(52/11)</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_11</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -3470,10 +3471,10 @@
         <v>58</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P37:BH37)</f>
         <v>2</v>
       </c>
-      <c r="AN37" s="4">
+      <c r="AM37" s="4">
         <v>1</v>
       </c>
       <c r="AU37" s="4">
@@ -3488,14 +3489,14 @@
         <v>44741</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(53/12)</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_12</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -3519,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P38:BH38)</f>
         <v>2</v>
       </c>
       <c r="AZ38" s="4">
@@ -3537,14 +3538,14 @@
         <v>44741</v>
       </c>
       <c r="C39" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(54/13)</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_13</v>
       </c>
       <c r="F39" s="15" t="s">
@@ -3564,151 +3565,151 @@
         <v>9</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
@@ -3719,14 +3720,14 @@
         <v>44741</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(55/14)</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_14</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -3750,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" ref="N40:N46" si="7">SUM(P40:BH40)</f>
+        <f>SUM(P40:BH40)</f>
         <v>0</v>
       </c>
     </row>
@@ -3762,14 +3763,14 @@
         <v>44741</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(56/15)</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_15</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -3795,17 +3796,17 @@
         <v>9</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="7"/>
+        <f>SUM(P41:BH41)</f>
         <v>9</v>
       </c>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="V41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="4">
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="4">
         <v>2</v>
+      </c>
+      <c r="AO41" s="4">
+        <v>1</v>
       </c>
       <c r="AU41" s="4">
         <v>5</v>
@@ -3819,14 +3820,14 @@
         <v>44741</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(57/16)</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_16</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -3847,10 +3848,10 @@
         <v>58</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Z42" s="4">
+        <f>SUM(P42:BH42)</f>
+        <v>5</v>
+      </c>
+      <c r="Y42" s="4">
         <v>3</v>
       </c>
       <c r="AZ42" s="4">
@@ -3868,14 +3869,14 @@
         <v>44741</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(58/17)</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_17</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -3896,10 +3897,10 @@
         <v>58</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="7"/>
+        <f>SUM(P43:BH43)</f>
         <v>2</v>
       </c>
-      <c r="AF43" s="4">
+      <c r="AE43" s="4">
         <v>1</v>
       </c>
       <c r="BF43" s="4">
@@ -3914,14 +3915,14 @@
         <v>44741</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(59/18)</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_18</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3945,13 +3946,13 @@
         <v>4</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="7"/>
+        <f>SUM(P44:BH44)</f>
         <v>4</v>
       </c>
-      <c r="Z44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="4">
+      <c r="Y44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="4">
         <v>1</v>
       </c>
       <c r="AP44" s="4">
@@ -3969,14 +3970,14 @@
         <v>44741</v>
       </c>
       <c r="C45" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(60/19)</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_19</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -4002,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="7"/>
+        <f>SUM(P45:BH45)</f>
         <v>0</v>
       </c>
     </row>
@@ -4014,14 +4015,14 @@
         <v>44741</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(61/20)</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_20</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -4047,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="7"/>
+        <f>SUM(P46:BH46)</f>
         <v>1</v>
       </c>
       <c r="BF46" s="4">
@@ -4062,14 +4063,14 @@
         <v>44741</v>
       </c>
       <c r="C47" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(62/21)</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_21</v>
       </c>
       <c r="F47" s="15" t="s">
@@ -4089,151 +4090,151 @@
         <v>9</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BH47" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
@@ -4244,14 +4245,14 @@
         <v>44741</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(63/22)</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_22</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -4275,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" ref="N48:N79" si="8">SUM(P48:BH48)</f>
+        <f>SUM(P48:BH48)</f>
         <v>0</v>
       </c>
     </row>
@@ -4287,14 +4288,14 @@
         <v>44741</v>
       </c>
       <c r="C49" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(64/23)</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2_23</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -4320,13 +4321,13 @@
         <v>2</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P49:BH49)</f>
         <v>2</v>
       </c>
-      <c r="AD49" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN49" s="4">
+      <c r="AC49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM49" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4338,14 +4339,14 @@
         <v>44755</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(41/0)</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_0</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -4366,10 +4367,10 @@
         <v>58</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P50:BH50)</f>
         <v>2</v>
       </c>
-      <c r="AA50" s="4">
+      <c r="Z50" s="4">
         <v>1</v>
       </c>
       <c r="AR50" s="4">
@@ -4384,14 +4385,14 @@
         <v>44755</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(42/1)</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_1</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -4412,7 +4413,7 @@
         <v>58</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P51:BH51)</f>
         <v>1</v>
       </c>
       <c r="AP51" s="4">
@@ -4427,14 +4428,14 @@
         <v>44755</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(43/2)</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_2</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -4455,7 +4456,7 @@
         <v>58</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P52:BH52)</f>
         <v>1</v>
       </c>
       <c r="AV52" s="4">
@@ -4470,14 +4471,14 @@
         <v>44755</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(44/3)</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_3</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -4498,10 +4499,10 @@
         <v>58</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P53:BH53)</f>
         <v>13</v>
       </c>
-      <c r="W53" s="4">
+      <c r="V53" s="4">
         <v>4</v>
       </c>
       <c r="AU53" s="4">
@@ -4519,14 +4520,14 @@
         <v>44755</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(45/4)</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_4</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -4550,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P54:BH54)</f>
         <v>3</v>
       </c>
       <c r="AR54" s="4">
@@ -4571,14 +4572,14 @@
         <v>44755</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(46/5)</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_5</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -4599,7 +4600,7 @@
         <v>58</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P55:BH55)</f>
         <v>8</v>
       </c>
       <c r="AR55" s="4">
@@ -4620,14 +4621,14 @@
         <v>44755</v>
       </c>
       <c r="C56" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(47/6)</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_6</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -4649,10 +4650,10 @@
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AL56" s="4">
+        <f>SUM(P56:BH56)</f>
+        <v>5</v>
+      </c>
+      <c r="AK56" s="4">
         <v>2</v>
       </c>
       <c r="AP56" s="4">
@@ -4670,14 +4671,14 @@
         <v>44755</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(48/7)</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_7</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -4698,7 +4699,7 @@
         <v>58</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P57:BH57)</f>
         <v>0</v>
       </c>
     </row>
@@ -4710,14 +4711,14 @@
         <v>44755</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(49/8)</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_8</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -4738,13 +4739,13 @@
         <v>58</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P58:BH58)</f>
         <v>22</v>
       </c>
-      <c r="U58" s="4">
+      <c r="T58" s="4">
         <v>2</v>
       </c>
-      <c r="X58" s="4">
+      <c r="W58" s="4">
         <v>7</v>
       </c>
       <c r="AP58" s="4">
@@ -4762,14 +4763,14 @@
         <v>44755</v>
       </c>
       <c r="C59" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(50/9)</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_9</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -4790,10 +4791,10 @@
         <v>58</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AD59" s="4">
+        <f>SUM(P59:BH59)</f>
+        <v>1</v>
+      </c>
+      <c r="AC59" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4805,14 +4806,14 @@
         <v>44755</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(51/10)</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_10</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -4833,16 +4834,16 @@
         <v>58</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P60:BH60)</f>
         <v>14</v>
       </c>
-      <c r="X60" s="4">
+      <c r="W60" s="4">
         <v>4</v>
       </c>
-      <c r="Z60" s="4">
+      <c r="Y60" s="4">
         <v>2</v>
       </c>
-      <c r="AE60" s="4">
+      <c r="AD60" s="4">
         <v>1</v>
       </c>
       <c r="AP60" s="4">
@@ -4866,14 +4867,14 @@
         <v>44755</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(52/11)</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_11</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -4894,19 +4895,19 @@
         <v>58</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P61:BH61)</f>
         <v>9</v>
       </c>
-      <c r="V61" s="4">
-        <v>1</v>
-      </c>
-      <c r="X61" s="4">
-        <v>1</v>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>2</v>
       </c>
       <c r="AC61" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD61" s="4">
         <v>1</v>
       </c>
       <c r="AU61" s="4">
@@ -4930,14 +4931,14 @@
         <v>44755</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>S(53/12)</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_12</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -4958,7 +4959,7 @@
         <v>58</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P62:BH62)</f>
         <v>3</v>
       </c>
       <c r="AP62" s="4">
@@ -4976,14 +4977,14 @@
         <v>44755</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(54/13)</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_13</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -5004,7 +5005,7 @@
         <v>58</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P63:BH63)</f>
         <v>2</v>
       </c>
       <c r="AV63" s="4">
@@ -5022,14 +5023,14 @@
         <v>44755</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>W(55/14)</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_14</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5050,7 +5051,7 @@
         <v>58</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P64:BH64)</f>
         <v>2</v>
       </c>
       <c r="AU64" s="4">
@@ -5068,14 +5069,14 @@
         <v>44755</v>
       </c>
       <c r="C65" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>F(56/15)</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3_15</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -5096,13 +5097,13 @@
         <v>58</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P65:BH65)</f>
         <v>7</v>
       </c>
+      <c r="U65" s="4">
+        <v>1</v>
+      </c>
       <c r="V65" s="4">
-        <v>1</v>
-      </c>
-      <c r="W65" s="4">
         <v>1</v>
       </c>
       <c r="AP65" s="4">
@@ -5123,14 +5124,14 @@
         <v>44755</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:C97" si="9">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <f t="shared" ref="C66:C97" si="4">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E97" si="10">_xlfn.CONCAT(D66,"_",H66)</f>
+        <f t="shared" ref="E66:E97" si="5">_xlfn.CONCAT(D66,"_",H66)</f>
         <v>3_16</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -5151,13 +5152,13 @@
         <v>58</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P66:BH66)</f>
         <v>6</v>
       </c>
-      <c r="X66" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="4">
+      <c r="W66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="4">
         <v>1</v>
       </c>
       <c r="AP66" s="4">
@@ -5175,14 +5176,14 @@
         <v>44755</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(58/17)</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_17</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -5203,7 +5204,7 @@
         <v>58</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P67:BH67)</f>
         <v>1</v>
       </c>
       <c r="AW67" s="4">
@@ -5218,14 +5219,14 @@
         <v>44755</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(59/18)</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_18</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -5246,7 +5247,7 @@
         <v>58</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P68:BH68)</f>
         <v>3</v>
       </c>
       <c r="AP68" s="4">
@@ -5264,14 +5265,14 @@
         <v>44755</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(60/19)</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_19</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -5292,7 +5293,7 @@
         <v>58</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P69:BH69)</f>
         <v>1</v>
       </c>
       <c r="AP69" s="4">
@@ -5307,14 +5308,14 @@
         <v>44755</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(61/20)</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_20</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -5338,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P70:BH70)</f>
         <v>0</v>
       </c>
     </row>
@@ -5350,14 +5351,14 @@
         <v>44755</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(62/21)</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_21</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -5378,13 +5379,13 @@
         <v>58</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P71:BH71)</f>
         <v>6</v>
       </c>
-      <c r="Z71" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="4">
+      <c r="Y71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="4">
         <v>1</v>
       </c>
       <c r="AP71" s="4">
@@ -5402,14 +5403,14 @@
         <v>44755</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(63/22)</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_22</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -5430,10 +5431,10 @@
         <v>58</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P72:BH72)</f>
         <v>2</v>
       </c>
-      <c r="Z72" s="4">
+      <c r="Y72" s="4">
         <v>1</v>
       </c>
       <c r="AZ72" s="4">
@@ -5448,14 +5449,14 @@
         <v>44755</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(64/23)</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3_23</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -5478,13 +5479,13 @@
         <v>58</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="Z73" s="4">
+        <f>SUM(P73:BH73)</f>
+        <v>5</v>
+      </c>
+      <c r="Y73" s="4">
         <v>2</v>
       </c>
-      <c r="AN73" s="4">
+      <c r="AM73" s="4">
         <v>1</v>
       </c>
       <c r="BF73" s="4">
@@ -5499,14 +5500,14 @@
         <v>44769</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(41/0)</v>
       </c>
       <c r="D74">
         <v>4</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -5527,16 +5528,16 @@
         <v>58</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P74:BH74)</f>
         <v>4</v>
       </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
       <c r="W74" s="4">
         <v>1</v>
       </c>
-      <c r="X74" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD74" s="4">
+      <c r="AC74" s="4">
         <v>1</v>
       </c>
       <c r="AZ74" s="4">
@@ -5551,14 +5552,14 @@
         <v>44769</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(42/1)</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_1</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -5579,7 +5580,7 @@
         <v>58</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P75:BH75)</f>
         <v>2</v>
       </c>
       <c r="AP75" s="4">
@@ -5597,14 +5598,14 @@
         <v>44769</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(43/2)</v>
       </c>
       <c r="D76">
         <v>4</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_2</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -5625,7 +5626,7 @@
         <v>58</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P76:BH76)</f>
         <v>7</v>
       </c>
       <c r="AU76" s="4">
@@ -5649,14 +5650,14 @@
         <v>44769</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(44/3)</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_3</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -5672,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="4" t="s">
@@ -5682,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P77:BH77)</f>
         <v>3</v>
       </c>
-      <c r="W77" s="4">
+      <c r="V77" s="4">
         <v>2</v>
       </c>
       <c r="AW77" s="4">
@@ -5700,14 +5701,14 @@
         <v>44769</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(45/4)</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_4</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -5728,7 +5729,7 @@
         <v>58</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P78:BH78)</f>
         <v>1</v>
       </c>
       <c r="AR78" s="4">
@@ -5743,14 +5744,14 @@
         <v>44769</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(46/5)</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_5</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -5766,14 +5767,14 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="4" t="s">
         <v>58</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(P79:BH79)</f>
         <v>5</v>
       </c>
       <c r="AP79" s="4">
@@ -5794,14 +5795,14 @@
         <v>44769</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(47/6)</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_6</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -5822,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" ref="N80:N101" si="11">SUM(P80:BH80)</f>
+        <f>SUM(P80:BH80)</f>
         <v>5</v>
       </c>
       <c r="AP80" s="4">
@@ -5840,14 +5841,14 @@
         <v>44769</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(48/7)</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_7</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -5868,13 +5869,13 @@
         <v>58</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P81:BH81)</f>
         <v>4</v>
       </c>
-      <c r="W81" s="4">
+      <c r="V81" s="4">
         <v>2</v>
       </c>
-      <c r="AI81" s="4">
+      <c r="AH81" s="4">
         <v>1</v>
       </c>
       <c r="BE81" s="4">
@@ -5889,14 +5890,14 @@
         <v>44769</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(49/8)</v>
       </c>
       <c r="D82">
         <v>4</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_8</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -5917,13 +5918,13 @@
         <v>58</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P82:BH82)</f>
         <v>8</v>
       </c>
-      <c r="Z82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="4">
+      <c r="Y82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="4">
         <v>1</v>
       </c>
       <c r="AY82" s="4">
@@ -5938,14 +5939,14 @@
         <v>44769</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(50/9)</v>
       </c>
       <c r="D83">
         <v>4</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_9</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -5966,7 +5967,7 @@
         <v>58</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P83:BH83)</f>
         <v>1</v>
       </c>
       <c r="AU83" s="4">
@@ -5981,14 +5982,14 @@
         <v>44769</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(51/10)</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_10</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -6009,10 +6010,10 @@
         <v>58</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P84:BH84)</f>
         <v>8</v>
       </c>
-      <c r="Z84" s="4">
+      <c r="Y84" s="4">
         <v>3</v>
       </c>
       <c r="AU84" s="4">
@@ -6030,14 +6031,14 @@
         <v>44769</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(52/11)</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_11</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -6058,7 +6059,7 @@
         <v>58</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P85:BH85)</f>
         <v>0</v>
       </c>
     </row>
@@ -6070,14 +6071,14 @@
         <v>44769</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(53/12)</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_12</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -6098,7 +6099,7 @@
         <v>58</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P86:BH86)</f>
         <v>2</v>
       </c>
       <c r="AU86" s="4">
@@ -6116,14 +6117,14 @@
         <v>44769</v>
       </c>
       <c r="C87" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(54/13)</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_13</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -6147,16 +6148,16 @@
         <v>9</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P87:BH87)</f>
         <v>9</v>
       </c>
-      <c r="X87" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="4">
+      <c r="W87" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="4">
         <v>4</v>
       </c>
-      <c r="AN87" s="4">
+      <c r="AM87" s="4">
         <v>1</v>
       </c>
       <c r="AP87" s="4">
@@ -6177,14 +6178,14 @@
         <v>44769</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(55/14)</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_14</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -6205,13 +6206,13 @@
         <v>58</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P88:BH88)</f>
         <v>9</v>
       </c>
-      <c r="W88" s="4">
+      <c r="V88" s="4">
         <v>3</v>
       </c>
-      <c r="Z88" s="4">
+      <c r="Y88" s="4">
         <v>1</v>
       </c>
       <c r="AU88" s="4">
@@ -6232,14 +6233,14 @@
         <v>44769</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(56/15)</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_15</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -6260,10 +6261,10 @@
         <v>58</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P89:BH89)</f>
         <v>6</v>
       </c>
-      <c r="AF89" s="4">
+      <c r="AE89" s="4">
         <v>1</v>
       </c>
       <c r="AU89" s="4">
@@ -6281,14 +6282,14 @@
         <v>44769</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(57/16)</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_16</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -6309,10 +6310,10 @@
         <v>58</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P90:BH90)</f>
         <v>7</v>
       </c>
-      <c r="AF90" s="4">
+      <c r="AE90" s="4">
         <v>1</v>
       </c>
       <c r="AU90" s="4">
@@ -6336,14 +6337,14 @@
         <v>44769</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(58/17)</v>
       </c>
       <c r="D91">
         <v>4</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_17</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -6364,10 +6365,10 @@
         <v>58</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P91:BH91)</f>
         <v>6</v>
       </c>
-      <c r="Z91" s="4">
+      <c r="Y91" s="4">
         <v>3</v>
       </c>
       <c r="AP91" s="4">
@@ -6385,14 +6386,14 @@
         <v>44769</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(59/18)</v>
       </c>
       <c r="D92">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_18</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -6413,10 +6414,10 @@
         <v>58</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P92:BH92)</f>
         <v>7</v>
       </c>
-      <c r="Z92" s="4">
+      <c r="Y92" s="4">
         <v>3</v>
       </c>
       <c r="AP92" s="4">
@@ -6437,14 +6438,14 @@
         <v>44769</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(60/19)</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_19</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -6467,13 +6468,13 @@
         <v>58</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P93:BH93)</f>
         <v>2</v>
       </c>
-      <c r="W93" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL93" s="4">
+      <c r="V93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK93" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6485,14 +6486,14 @@
         <v>44769</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>S(61/20)</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_20</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -6513,13 +6514,13 @@
         <v>58</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W94" s="4">
+        <f>SUM(P94:BH94)</f>
+        <v>5</v>
+      </c>
+      <c r="V94" s="4">
         <v>4</v>
       </c>
-      <c r="AF94" s="4">
+      <c r="AE94" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6531,14 +6532,14 @@
         <v>44769</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(62/21)</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_21</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -6559,13 +6560,13 @@
         <v>58</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P95:BH95)</f>
         <v>16</v>
       </c>
-      <c r="U95" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="4">
+      <c r="T95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4">
         <v>3</v>
       </c>
       <c r="AP95" s="4">
@@ -6589,14 +6590,14 @@
         <v>44769</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>W(63/22)</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_22</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -6617,10 +6618,10 @@
         <v>58</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P96:BH96)</f>
         <v>13</v>
       </c>
-      <c r="Z96" s="4">
+      <c r="Y96" s="4">
         <v>3</v>
       </c>
       <c r="AP96" s="4">
@@ -6641,14 +6642,14 @@
         <v>44769</v>
       </c>
       <c r="C97" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>F(64/23)</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4_23</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -6669,10 +6670,10 @@
         <v>58</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P97:BH97)</f>
         <v>3</v>
       </c>
-      <c r="Z97" s="4">
+      <c r="Y97" s="4">
         <v>2</v>
       </c>
       <c r="BF97" s="4">
@@ -6687,14 +6688,14 @@
         <v>44784</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f t="shared" ref="C98:C129" si="12">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
+        <f t="shared" ref="C98:C129" si="6">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
         <v>F(41/0)</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" ref="E98:E129" si="13">_xlfn.CONCAT(D98,"_",H98)</f>
+        <f t="shared" ref="E98:E129" si="7">_xlfn.CONCAT(D98,"_",H98)</f>
         <v>5_0</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -6715,7 +6716,7 @@
         <v>58</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P98:BH98)</f>
         <v>8</v>
       </c>
       <c r="AP98" s="4">
@@ -6742,14 +6743,14 @@
         <v>44784</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(42/1)</v>
       </c>
       <c r="D99">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_1</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -6770,10 +6771,10 @@
         <v>58</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AF99" s="4">
+        <f>SUM(P99:BH99)</f>
+        <v>1</v>
+      </c>
+      <c r="AE99" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6785,14 +6786,14 @@
         <v>44784</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(43/2)</v>
       </c>
       <c r="D100">
         <v>5</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_2</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -6813,7 +6814,7 @@
         <v>58</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P100:BH100)</f>
         <v>1</v>
       </c>
       <c r="BF100" s="4">
@@ -6828,14 +6829,14 @@
         <v>44784</v>
       </c>
       <c r="C101" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(44/3)</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_3</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -6856,7 +6857,7 @@
         <v>58</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="11"/>
+        <f>SUM(P101:BH101)</f>
         <v>1</v>
       </c>
       <c r="AZ101" s="4">
@@ -6871,14 +6872,14 @@
         <v>44784</v>
       </c>
       <c r="C102" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(45/4)</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_4</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -6907,14 +6908,14 @@
         <v>44784</v>
       </c>
       <c r="C103" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(46/5)</v>
       </c>
       <c r="D103">
         <v>5</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_5</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -6938,7 +6939,7 @@
         <f>SUM(P103:BH103)</f>
         <v>3</v>
       </c>
-      <c r="AO103" s="4">
+      <c r="AN103" s="4">
         <v>1</v>
       </c>
       <c r="AY103" s="4">
@@ -6956,14 +6957,14 @@
         <v>44784</v>
       </c>
       <c r="C104" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(47/6)</v>
       </c>
       <c r="D104">
         <v>5</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_6</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -6987,10 +6988,10 @@
         <f>SUM(P104:BH104)</f>
         <v>12</v>
       </c>
-      <c r="W104" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z104" s="4">
+      <c r="V104" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="4">
         <v>1</v>
       </c>
       <c r="AP104" s="4">
@@ -7023,14 +7024,14 @@
         <v>44784</v>
       </c>
       <c r="C105" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(48/7)</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_7</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -7054,10 +7055,10 @@
         <f>SUM(P105:BH105)</f>
         <v>3</v>
       </c>
-      <c r="W105" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF105" s="4">
+      <c r="V105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE105" s="4">
         <v>1</v>
       </c>
       <c r="AV105" s="4">
@@ -7072,14 +7073,14 @@
         <v>44784</v>
       </c>
       <c r="C106" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(49/8)</v>
       </c>
       <c r="D106">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_8</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -7103,13 +7104,13 @@
         <f>SUM(P106:BH106)</f>
         <v>15</v>
       </c>
-      <c r="S106" s="4">
-        <v>1</v>
-      </c>
-      <c r="X106" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG106" s="4">
+      <c r="R106" s="4">
+        <v>1</v>
+      </c>
+      <c r="W106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="4">
         <v>1</v>
       </c>
       <c r="AY106" s="4">
@@ -7124,14 +7125,14 @@
         <v>44784</v>
       </c>
       <c r="C107" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(50/9)</v>
       </c>
       <c r="D107">
         <v>5</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_9</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -7158,7 +7159,7 @@
         <f>SUM(P107:BH107)</f>
         <v>4</v>
       </c>
-      <c r="AL107" s="4">
+      <c r="AK107" s="4">
         <v>3</v>
       </c>
       <c r="AR107" s="4">
@@ -7173,14 +7174,14 @@
         <v>44784</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(51/10)</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_10</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -7204,7 +7205,7 @@
         <v>3</v>
       </c>
       <c r="N108" s="4">
-        <f t="shared" ref="N108:N139" si="14">SUM(P108:BH108)</f>
+        <f>SUM(P108:BH108)</f>
         <v>3</v>
       </c>
       <c r="AV108" s="4">
@@ -7225,14 +7226,14 @@
         <v>44784</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(52/11)</v>
       </c>
       <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_11</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -7258,16 +7259,16 @@
         <v>16</v>
       </c>
       <c r="N109" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P109:BH109)</f>
         <v>16</v>
       </c>
-      <c r="U109" s="4">
-        <v>1</v>
-      </c>
-      <c r="X109" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="4">
+      <c r="T109" s="4">
+        <v>1</v>
+      </c>
+      <c r="W109" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB109" s="4">
         <v>4</v>
       </c>
       <c r="AP109" s="4">
@@ -7291,14 +7292,14 @@
         <v>44784</v>
       </c>
       <c r="C110" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(53/12)</v>
       </c>
       <c r="D110">
         <v>5</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_12</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -7319,10 +7320,10 @@
         <v>58</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P110:BH110)</f>
         <v>9</v>
       </c>
-      <c r="Z110" s="4">
+      <c r="Y110" s="4">
         <v>3</v>
       </c>
       <c r="AP110" s="4">
@@ -7346,14 +7347,14 @@
         <v>44784</v>
       </c>
       <c r="C111" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(54/13)</v>
       </c>
       <c r="D111">
         <v>5</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_13</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -7374,10 +7375,10 @@
         <v>58</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="AD111" s="4">
+        <f>SUM(P111:BH111)</f>
+        <v>5</v>
+      </c>
+      <c r="AC111" s="4">
         <v>1</v>
       </c>
       <c r="AV111" s="4">
@@ -7395,14 +7396,14 @@
         <v>44784</v>
       </c>
       <c r="C112" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(55/14)</v>
       </c>
       <c r="D112">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_14</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -7423,7 +7424,7 @@
         <v>58</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P112:BH112)</f>
         <v>2</v>
       </c>
       <c r="BF112" s="4">
@@ -7438,14 +7439,14 @@
         <v>44784</v>
       </c>
       <c r="C113" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(56/15)</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_15</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -7466,7 +7467,7 @@
         <v>58</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P113:BH113)</f>
         <v>0</v>
       </c>
     </row>
@@ -7478,14 +7479,14 @@
         <v>44784</v>
       </c>
       <c r="C114" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(57/16)</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_16</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -7506,13 +7507,13 @@
         <v>58</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P114:BH114)</f>
         <v>12</v>
       </c>
-      <c r="V114" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z114" s="4">
+      <c r="U114" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y114" s="4">
         <v>3</v>
       </c>
       <c r="AP114" s="4">
@@ -7539,14 +7540,14 @@
         <v>44784</v>
       </c>
       <c r="C115" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(58/17)</v>
       </c>
       <c r="D115">
         <v>5</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_17</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -7567,10 +7568,10 @@
         <v>58</v>
       </c>
       <c r="N115" s="4">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="W115" s="4">
+        <f>SUM(P115:BH115)</f>
+        <v>5</v>
+      </c>
+      <c r="V115" s="4">
         <v>4</v>
       </c>
       <c r="AW115" s="4">
@@ -7585,14 +7586,14 @@
         <v>44784</v>
       </c>
       <c r="C116" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(59/18)</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_18</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -7616,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="N116" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P116:BH116)</f>
         <v>1</v>
       </c>
       <c r="BB116" s="4">
@@ -7631,14 +7632,14 @@
         <v>44784</v>
       </c>
       <c r="C117" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(60/19)</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_19</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -7659,10 +7660,10 @@
         <v>58</v>
       </c>
       <c r="N117" s="4">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="W117" s="4">
+        <f>SUM(P117:BH117)</f>
+        <v>5</v>
+      </c>
+      <c r="V117" s="4">
         <v>1</v>
       </c>
       <c r="AP117" s="4">
@@ -7680,14 +7681,14 @@
         <v>44784</v>
       </c>
       <c r="C118" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(61/20)</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_20</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -7708,10 +7709,10 @@
         <v>58</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P118:BH118)</f>
         <v>9</v>
       </c>
-      <c r="Z118" s="4">
+      <c r="Y118" s="4">
         <v>1</v>
       </c>
       <c r="AP118" s="4">
@@ -7732,14 +7733,14 @@
         <v>44784</v>
       </c>
       <c r="C119" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(62/21)</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_21</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -7760,10 +7761,10 @@
         <v>58</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Z119" s="4">
+        <f>SUM(P119:BH119)</f>
+        <v>1</v>
+      </c>
+      <c r="Y119" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7775,14 +7776,14 @@
         <v>44784</v>
       </c>
       <c r="C120" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(63/22)</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_22</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -7803,10 +7804,10 @@
         <v>58</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P120:BH120)</f>
         <v>12</v>
       </c>
-      <c r="Z120" s="4">
+      <c r="Y120" s="4">
         <v>3</v>
       </c>
       <c r="AP120" s="4">
@@ -7830,14 +7831,14 @@
         <v>44784</v>
       </c>
       <c r="C121" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(64/23)</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5_23</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -7858,16 +7859,16 @@
         <v>58</v>
       </c>
       <c r="N121" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P121:BH121)</f>
         <v>9</v>
       </c>
-      <c r="W121" s="4">
+      <c r="V121" s="4">
+        <v>1</v>
+      </c>
+      <c r="X121" s="4">
         <v>1</v>
       </c>
       <c r="Y121" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="4">
         <v>2</v>
       </c>
       <c r="AP121" s="4">
@@ -7885,14 +7886,14 @@
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(41/0)</v>
       </c>
       <c r="D122">
         <v>6</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_0</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -7916,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="N122" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P122:BH122)</f>
         <v>2</v>
       </c>
       <c r="BF122" s="4">
@@ -7931,14 +7932,14 @@
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(42/1)</v>
       </c>
       <c r="D123">
         <v>6</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_1</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -7962,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="N123" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P123:BH123)</f>
         <v>1</v>
       </c>
       <c r="AV123" s="4">
@@ -7977,14 +7978,14 @@
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(43/2)</v>
       </c>
       <c r="D124">
         <v>6</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -8005,7 +8006,7 @@
         <v>58</v>
       </c>
       <c r="N124" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P124:BH124)</f>
         <v>1</v>
       </c>
       <c r="AZ124" s="4">
@@ -8020,14 +8021,14 @@
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(44/3)</v>
       </c>
       <c r="D125">
         <v>6</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_3</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -8048,7 +8049,7 @@
         <v>58</v>
       </c>
       <c r="N125" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P125:BH125)</f>
         <v>3</v>
       </c>
       <c r="AP125" s="4">
@@ -8066,14 +8067,14 @@
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(45/4)</v>
       </c>
       <c r="D126">
         <v>6</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_4</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -8097,7 +8098,7 @@
         <v>2</v>
       </c>
       <c r="N126" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P126:BH126)</f>
         <v>2</v>
       </c>
       <c r="AP126" s="4">
@@ -8115,14 +8116,14 @@
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>S(46/5)</v>
       </c>
       <c r="D127">
         <v>6</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_5</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -8148,7 +8149,7 @@
         <v>4</v>
       </c>
       <c r="N127" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P127:BH127)</f>
         <v>4</v>
       </c>
       <c r="AR127" s="4">
@@ -8172,14 +8173,14 @@
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>W(47/6)</v>
       </c>
       <c r="D128">
         <v>6</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_6</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -8203,10 +8204,10 @@
         <v>10</v>
       </c>
       <c r="N128" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P128:BH128)</f>
         <v>10</v>
       </c>
-      <c r="AL128" s="4">
+      <c r="AK128" s="4">
         <v>1</v>
       </c>
       <c r="AP128" s="4">
@@ -8230,14 +8231,14 @@
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>F(48/7)</v>
       </c>
       <c r="D129">
         <v>6</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6_7</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -8261,10 +8262,10 @@
         <v>6</v>
       </c>
       <c r="N129" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P129:BH129)</f>
         <v>6</v>
       </c>
-      <c r="W129" s="4">
+      <c r="V129" s="4">
         <v>2</v>
       </c>
       <c r="AP129" s="4">
@@ -8285,14 +8286,14 @@
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" ref="C130:C161" si="15">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="C130:C161" si="8">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D130">
         <v>6</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" ref="E130:E161" si="16">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E161" si="9">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>6_8</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -8316,7 +8317,7 @@
         <v>11</v>
       </c>
       <c r="N130" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P130:BH130)</f>
         <v>11</v>
       </c>
       <c r="AP130" s="4">
@@ -8334,14 +8335,14 @@
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(50/9)</v>
       </c>
       <c r="D131">
         <v>6</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_9</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -8365,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="N131" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P131:BH131)</f>
         <v>2</v>
       </c>
       <c r="AP131" s="4">
@@ -8383,14 +8384,14 @@
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(51/10)</v>
       </c>
       <c r="D132">
         <v>6</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_10</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -8411,7 +8412,7 @@
         <v>58</v>
       </c>
       <c r="N132" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P132:BH132)</f>
         <v>4</v>
       </c>
       <c r="AP132" s="4">
@@ -8432,14 +8433,14 @@
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(52/11)</v>
       </c>
       <c r="D133">
         <v>6</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_11</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -8463,13 +8464,13 @@
         <v>7</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P133:BH133)</f>
         <v>7</v>
       </c>
-      <c r="AD133" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL133" s="4">
+      <c r="AC133" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK133" s="4">
         <v>1</v>
       </c>
       <c r="AP133" s="4">
@@ -8490,14 +8491,14 @@
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(53/12)</v>
       </c>
       <c r="D134">
         <v>6</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_12</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -8521,10 +8522,10 @@
         <v>4</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P134:BH134)</f>
         <v>4</v>
       </c>
-      <c r="X134" s="4">
+      <c r="W134" s="4">
         <v>1</v>
       </c>
       <c r="AP134" s="4">
@@ -8545,14 +8546,14 @@
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(54/13)</v>
       </c>
       <c r="D135">
         <v>6</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_13</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -8576,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P135:BH135)</f>
         <v>0</v>
       </c>
     </row>
@@ -8588,14 +8589,14 @@
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(55/14)</v>
       </c>
       <c r="D136">
         <v>6</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_14</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -8619,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="N136" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P136:BH136)</f>
         <v>2</v>
       </c>
       <c r="AU136" s="4">
@@ -8637,14 +8638,14 @@
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(56/15)</v>
       </c>
       <c r="D137">
         <v>6</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_15</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -8668,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P137:BH137)</f>
         <v>0</v>
       </c>
     </row>
@@ -8680,14 +8681,14 @@
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(57/16)</v>
       </c>
       <c r="D138">
         <v>6</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_16</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -8711,10 +8712,10 @@
         <v>1</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL138" s="4">
+        <f>SUM(P138:BH138)</f>
+        <v>1</v>
+      </c>
+      <c r="AK138" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8726,14 +8727,14 @@
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(58/17)</v>
       </c>
       <c r="D139">
         <v>6</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_17</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -8757,13 +8758,13 @@
         <v>3</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="14"/>
+        <f>SUM(P139:BH139)</f>
         <v>3</v>
       </c>
-      <c r="W139" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL139" s="4">
+      <c r="V139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK139" s="4">
         <v>1</v>
       </c>
       <c r="AW139" s="4">
@@ -8778,14 +8779,14 @@
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(59/18)</v>
       </c>
       <c r="D140">
         <v>6</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_18</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -8809,10 +8810,10 @@
         <v>3</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" ref="N140:N171" si="17">SUM(P140:BH140)</f>
+        <f>SUM(P140:BH140)</f>
         <v>3</v>
       </c>
-      <c r="AL140" s="4">
+      <c r="AK140" s="4">
         <v>1</v>
       </c>
       <c r="AP140" s="4">
@@ -8827,14 +8828,14 @@
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(60/19)</v>
       </c>
       <c r="D141">
         <v>6</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_19</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -8858,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P141:BH141)</f>
         <v>3</v>
       </c>
       <c r="AV141" s="4">
@@ -8876,14 +8877,14 @@
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(61/20)</v>
       </c>
       <c r="D142">
         <v>6</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_20</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -8904,7 +8905,7 @@
         <v>58</v>
       </c>
       <c r="N142" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P142:BH142)</f>
         <v>8</v>
       </c>
       <c r="AP142" s="4">
@@ -8925,14 +8926,14 @@
         <v>44796</v>
       </c>
       <c r="C143" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(62/21)</v>
       </c>
       <c r="D143">
         <v>6</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_21</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -8956,10 +8957,10 @@
         <v>8</v>
       </c>
       <c r="N143" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P143:BH143)</f>
         <v>8</v>
       </c>
-      <c r="W143" s="4">
+      <c r="V143" s="4">
         <v>1</v>
       </c>
       <c r="AP143" s="4">
@@ -8980,14 +8981,14 @@
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(63/22)</v>
       </c>
       <c r="D144">
         <v>6</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_22</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -9011,10 +9012,10 @@
         <v>5</v>
       </c>
       <c r="N144" s="4">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="Z144" s="4">
+        <f>SUM(P144:BH144)</f>
+        <v>5</v>
+      </c>
+      <c r="Y144" s="4">
         <v>1</v>
       </c>
       <c r="AP144" s="4">
@@ -9032,14 +9033,14 @@
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(64/23)</v>
       </c>
       <c r="D145">
         <v>6</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6_23</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -9063,13 +9064,13 @@
         <v>9</v>
       </c>
       <c r="N145" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P145:BH145)</f>
         <v>9</v>
       </c>
-      <c r="Z145" s="4">
+      <c r="Y145" s="4">
         <v>2</v>
       </c>
-      <c r="AL145" s="4">
+      <c r="AK145" s="4">
         <v>4</v>
       </c>
       <c r="AP145" s="4">
@@ -9090,14 +9091,14 @@
         <v>44810</v>
       </c>
       <c r="C146" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(41/0)</v>
       </c>
       <c r="D146">
         <v>7</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_0</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -9121,7 +9122,7 @@
         <v>2</v>
       </c>
       <c r="N146" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P146:BH146)</f>
         <v>2</v>
       </c>
       <c r="AW146" s="4">
@@ -9139,14 +9140,14 @@
         <v>44810</v>
       </c>
       <c r="C147" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(42/1)</v>
       </c>
       <c r="D147">
         <v>7</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_1</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -9170,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="N147" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P147:BH147)</f>
         <v>0</v>
       </c>
     </row>
@@ -9182,14 +9183,14 @@
         <v>44810</v>
       </c>
       <c r="C148" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(43/2)</v>
       </c>
       <c r="D148">
         <v>7</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_2</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -9210,7 +9211,7 @@
         <v>58</v>
       </c>
       <c r="N148" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P148:BH148)</f>
         <v>4</v>
       </c>
       <c r="AP148" s="4">
@@ -9228,14 +9229,14 @@
         <v>44810</v>
       </c>
       <c r="C149" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(44/3)</v>
       </c>
       <c r="D149">
         <v>7</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_3</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -9256,10 +9257,10 @@
         <v>58</v>
       </c>
       <c r="N149" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P149:BH149)</f>
         <v>2</v>
       </c>
-      <c r="W149" s="4">
+      <c r="V149" s="4">
         <v>1</v>
       </c>
       <c r="BF149" s="4">
@@ -9274,14 +9275,14 @@
         <v>44810</v>
       </c>
       <c r="C150" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
       <c r="D150">
         <v>7</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_4</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -9305,10 +9306,10 @@
         <v>2</v>
       </c>
       <c r="N150" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P150:BH150)</f>
         <v>2</v>
       </c>
-      <c r="AL150" s="4">
+      <c r="AK150" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9320,14 +9321,14 @@
         <v>44810</v>
       </c>
       <c r="C151" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(46/5)</v>
       </c>
       <c r="D151">
         <v>7</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_5</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -9348,13 +9349,13 @@
         <v>58</v>
       </c>
       <c r="N151" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P151:BH151)</f>
         <v>19</v>
       </c>
+      <c r="AK151" s="4">
+        <v>1</v>
+      </c>
       <c r="AL151" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM151" s="4">
         <v>1</v>
       </c>
       <c r="AP151" s="4">
@@ -9384,14 +9385,14 @@
         <v>44810</v>
       </c>
       <c r="C152" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(47/6)</v>
       </c>
       <c r="D152">
         <v>7</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_6</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -9415,13 +9416,13 @@
         <v>4</v>
       </c>
       <c r="N152" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P152:BH152)</f>
         <v>4</v>
       </c>
-      <c r="AL152" s="4">
+      <c r="AK152" s="4">
         <v>2</v>
       </c>
-      <c r="AN152" s="4">
+      <c r="AM152" s="4">
         <v>1</v>
       </c>
       <c r="AY152" s="4">
@@ -9436,14 +9437,14 @@
         <v>44810</v>
       </c>
       <c r="C153" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(48/7)</v>
       </c>
       <c r="D153">
         <v>7</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_7</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -9464,13 +9465,13 @@
         <v>58</v>
       </c>
       <c r="N153" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P153:BH153)</f>
         <v>8</v>
       </c>
-      <c r="W153" s="4">
+      <c r="V153" s="4">
         <v>4</v>
       </c>
-      <c r="AL153" s="4">
+      <c r="AK153" s="4">
         <v>1</v>
       </c>
       <c r="AU153" s="4">
@@ -9488,14 +9489,14 @@
         <v>44810</v>
       </c>
       <c r="C154" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(49/8)</v>
       </c>
       <c r="D154">
         <v>7</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_8</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -9519,10 +9520,10 @@
         <v>4</v>
       </c>
       <c r="N154" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P154:BH154)</f>
         <v>4</v>
       </c>
-      <c r="AL154" s="4">
+      <c r="AK154" s="4">
         <v>1</v>
       </c>
       <c r="AY154" s="4">
@@ -9537,14 +9538,14 @@
         <v>44810</v>
       </c>
       <c r="C155" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(50/9)</v>
       </c>
       <c r="D155">
         <v>7</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_9</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -9565,7 +9566,7 @@
         <v>58</v>
       </c>
       <c r="N155" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P155:BH155)</f>
         <v>1</v>
       </c>
       <c r="AR155" s="4">
@@ -9580,14 +9581,14 @@
         <v>44810</v>
       </c>
       <c r="C156" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(51/10)</v>
       </c>
       <c r="D156">
         <v>7</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_10</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -9611,7 +9612,7 @@
         <v>5</v>
       </c>
       <c r="N156" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P156:BH156)</f>
         <v>5</v>
       </c>
       <c r="AP156" s="4">
@@ -9635,14 +9636,14 @@
         <v>44810</v>
       </c>
       <c r="C157" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(52/11)</v>
       </c>
       <c r="D157">
         <v>7</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_11</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -9663,13 +9664,13 @@
         <v>58</v>
       </c>
       <c r="N157" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P157:BH157)</f>
         <v>18</v>
       </c>
-      <c r="AC157" s="4">
+      <c r="AB157" s="4">
         <v>2</v>
       </c>
-      <c r="AL157" s="4">
+      <c r="AK157" s="4">
         <v>5</v>
       </c>
       <c r="AP157" s="4">
@@ -9696,14 +9697,14 @@
         <v>44810</v>
       </c>
       <c r="C158" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>S(53/12)</v>
       </c>
       <c r="D158">
         <v>7</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_12</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -9724,10 +9725,10 @@
         <v>58</v>
       </c>
       <c r="N158" s="4">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AL158" s="4">
+        <f>SUM(P158:BH158)</f>
+        <v>5</v>
+      </c>
+      <c r="AK158" s="4">
         <v>4</v>
       </c>
       <c r="AU158" s="4">
@@ -9742,14 +9743,14 @@
         <v>44810</v>
       </c>
       <c r="C159" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(54/13)</v>
       </c>
       <c r="D159">
         <v>7</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_13</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -9770,7 +9771,7 @@
         <v>58</v>
       </c>
       <c r="N159" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P159:BH159)</f>
         <v>0</v>
       </c>
     </row>
@@ -9782,14 +9783,14 @@
         <v>44810</v>
       </c>
       <c r="C160" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>W(55/14)</v>
       </c>
       <c r="D160">
         <v>7</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_14</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -9810,7 +9811,7 @@
         <v>58</v>
       </c>
       <c r="N160" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P160:BH160)</f>
         <v>0</v>
       </c>
     </row>
@@ -9822,14 +9823,14 @@
         <v>44810</v>
       </c>
       <c r="C161" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>F(56/15)</v>
       </c>
       <c r="D161">
         <v>7</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7_15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -9850,10 +9851,10 @@
         <v>58</v>
       </c>
       <c r="N161" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P161:BH161)</f>
         <v>6</v>
       </c>
-      <c r="AH161" s="4">
+      <c r="AG161" s="4">
         <v>1</v>
       </c>
       <c r="AU161" s="4">
@@ -9871,14 +9872,14 @@
         <v>44810</v>
       </c>
       <c r="C162" s="8" t="str">
-        <f t="shared" ref="C162:C193" si="18">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
+        <f t="shared" ref="C162:C193" si="10">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D162">
         <v>7</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" ref="E162:E193" si="19">_xlfn.CONCAT(D162,"_",H162)</f>
+        <f t="shared" ref="E162:E193" si="11">_xlfn.CONCAT(D162,"_",H162)</f>
         <v>7_16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -9899,10 +9900,10 @@
         <v>58</v>
       </c>
       <c r="N162" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P162:BH162)</f>
         <v>2</v>
       </c>
-      <c r="Z162" s="4">
+      <c r="Y162" s="4">
         <v>1</v>
       </c>
       <c r="AZ162" s="4">
@@ -9917,14 +9918,14 @@
         <v>44810</v>
       </c>
       <c r="C163" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(58/17)</v>
       </c>
       <c r="D163">
         <v>7</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -9945,10 +9946,10 @@
         <v>58</v>
       </c>
       <c r="N163" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P163:BH163)</f>
         <v>2</v>
       </c>
-      <c r="AL163" s="4">
+      <c r="AK163" s="4">
         <v>1</v>
       </c>
       <c r="AZ163" s="4">
@@ -9963,14 +9964,14 @@
         <v>44810</v>
       </c>
       <c r="C164" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(59/18)</v>
       </c>
       <c r="D164">
         <v>7</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_18</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -9991,7 +9992,7 @@
         <v>58</v>
       </c>
       <c r="N164" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P164:BH164)</f>
         <v>4</v>
       </c>
       <c r="AP164" s="4">
@@ -10006,14 +10007,14 @@
         <v>44810</v>
       </c>
       <c r="C165" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(60/19)</v>
       </c>
       <c r="D165">
         <v>7</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_19</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -10034,10 +10035,10 @@
         <v>58</v>
       </c>
       <c r="N165" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P165:BH165)</f>
         <v>2</v>
       </c>
-      <c r="AD165" s="4">
+      <c r="AC165" s="4">
         <v>1</v>
       </c>
       <c r="AP165" s="4">
@@ -10052,14 +10053,14 @@
         <v>44810</v>
       </c>
       <c r="C166" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(61/20)</v>
       </c>
       <c r="D166">
         <v>7</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_20</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -10083,7 +10084,7 @@
         <v>2</v>
       </c>
       <c r="N166" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P166:BH166)</f>
         <v>2</v>
       </c>
       <c r="AZ166" s="4">
@@ -10098,14 +10099,14 @@
         <v>44810</v>
       </c>
       <c r="C167" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
       <c r="D167">
         <v>7</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_21</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -10131,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="N167" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P167:BH167)</f>
         <v>0</v>
       </c>
     </row>
@@ -10143,14 +10144,14 @@
         <v>44810</v>
       </c>
       <c r="C168" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(63/22)</v>
       </c>
       <c r="D168">
         <v>7</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_22</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -10171,13 +10172,13 @@
         <v>58</v>
       </c>
       <c r="N168" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P168:BH168)</f>
         <v>9</v>
       </c>
-      <c r="AC168" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL168" s="4">
+      <c r="AB168" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK168" s="4">
         <v>1</v>
       </c>
       <c r="AP168" s="4">
@@ -10198,14 +10199,14 @@
         <v>44810</v>
       </c>
       <c r="C169" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(64/23)</v>
       </c>
       <c r="D169">
         <v>7</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>7_23</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -10226,13 +10227,13 @@
         <v>58</v>
       </c>
       <c r="N169" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P169:BH169)</f>
         <v>15</v>
       </c>
-      <c r="R169" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL169" s="4">
+      <c r="Q169" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK169" s="4">
         <v>7</v>
       </c>
       <c r="AP169" s="4">
@@ -10250,14 +10251,14 @@
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(41/0)</v>
       </c>
       <c r="D170">
         <v>8</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_0</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -10278,10 +10279,10 @@
         <v>58</v>
       </c>
       <c r="N170" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P170:BH170)</f>
         <v>2</v>
       </c>
-      <c r="AL170" s="4">
+      <c r="AK170" s="4">
         <v>1</v>
       </c>
       <c r="AP170" s="4">
@@ -10296,14 +10297,14 @@
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(42/1)</v>
       </c>
       <c r="D171">
         <v>8</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_1</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -10324,7 +10325,7 @@
         <v>58</v>
       </c>
       <c r="N171" s="4">
-        <f t="shared" si="17"/>
+        <f>SUM(P171:BH171)</f>
         <v>5</v>
       </c>
       <c r="AW171" s="4">
@@ -10345,14 +10346,14 @@
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(43/2)</v>
       </c>
       <c r="D172">
         <v>8</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_2</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -10373,10 +10374,10 @@
         <v>58</v>
       </c>
       <c r="N172" s="4">
-        <f t="shared" ref="N172:N193" si="20">SUM(P172:BH172)</f>
-        <v>1</v>
-      </c>
-      <c r="W172" s="4">
+        <f t="shared" ref="N172:N193" si="12">SUM(P172:BH172)</f>
+        <v>1</v>
+      </c>
+      <c r="V172" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10388,14 +10389,14 @@
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(44/3)</v>
       </c>
       <c r="D173">
         <v>8</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_3</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -10416,7 +10417,7 @@
         <v>58</v>
       </c>
       <c r="N173" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AZ173" s="4">
@@ -10434,14 +10435,14 @@
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(45/4)</v>
       </c>
       <c r="D174">
         <v>8</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_4</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -10462,10 +10463,10 @@
         <v>58</v>
       </c>
       <c r="N174" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="AL174" s="4">
+      <c r="AK174" s="4">
         <v>3</v>
       </c>
     </row>
@@ -10477,14 +10478,14 @@
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
       <c r="D175">
         <v>8</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_5</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -10505,7 +10506,7 @@
         <v>58</v>
       </c>
       <c r="N175" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AP175" s="4">
@@ -10529,14 +10530,14 @@
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(47/6)</v>
       </c>
       <c r="D176">
         <v>8</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_6</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -10557,10 +10558,10 @@
         <v>58</v>
       </c>
       <c r="N176" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AL176" s="4">
+      <c r="AK176" s="4">
         <v>3</v>
       </c>
       <c r="AZ176" s="4">
@@ -10575,14 +10576,14 @@
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(48/7)</v>
       </c>
       <c r="D177">
         <v>8</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -10605,10 +10606,10 @@
         <v>58</v>
       </c>
       <c r="N177" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="W177" s="4">
+      <c r="V177" s="4">
         <v>2</v>
       </c>
       <c r="AU177" s="4">
@@ -10626,14 +10627,14 @@
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(49/8)</v>
       </c>
       <c r="D178">
         <v>8</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -10654,16 +10655,16 @@
         <v>58</v>
       </c>
       <c r="N178" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="T178" s="4">
+      <c r="S178" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ178" s="4">
         <v>1</v>
       </c>
       <c r="AK178" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL178" s="4">
         <v>7</v>
       </c>
       <c r="AY178" s="4">
@@ -10678,14 +10679,14 @@
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_9</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -10708,10 +10709,10 @@
         <v>58</v>
       </c>
       <c r="N179" s="4">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL179" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AK179" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10723,14 +10724,14 @@
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
       <c r="D180">
         <v>8</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_10</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -10754,10 +10755,10 @@
         <v>4</v>
       </c>
       <c r="N180" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AF180" s="4">
+      <c r="AE180" s="4">
         <v>1</v>
       </c>
       <c r="AU180" s="4">
@@ -10778,14 +10779,14 @@
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
       <c r="D181">
         <v>8</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_11</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -10809,16 +10810,16 @@
         <v>12</v>
       </c>
       <c r="N181" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="W181" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC181" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL181" s="4">
+      <c r="V181" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB181" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK181" s="4">
         <v>7</v>
       </c>
       <c r="AP181" s="4">
@@ -10833,14 +10834,14 @@
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
       <c r="D182">
         <v>8</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_12</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -10861,10 +10862,10 @@
         <v>58</v>
       </c>
       <c r="N182" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AL182" s="4">
+      <c r="AK182" s="4">
         <v>2</v>
       </c>
       <c r="AP182" s="4">
@@ -10894,14 +10895,14 @@
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
       <c r="D183">
         <v>8</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_13</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -10922,7 +10923,7 @@
         <v>58</v>
       </c>
       <c r="N183" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BB183" s="4">
@@ -10940,14 +10941,14 @@
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
       <c r="D184">
         <v>8</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_14</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -10968,10 +10969,10 @@
         <v>58</v>
       </c>
       <c r="N184" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="AH184" s="4">
+      <c r="AG184" s="4">
         <v>1</v>
       </c>
       <c r="AU184" s="4">
@@ -10992,14 +10993,14 @@
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
       <c r="D185">
         <v>8</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_15</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -11020,7 +11021,7 @@
         <v>58</v>
       </c>
       <c r="N185" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AU185" s="4">
@@ -11041,14 +11042,14 @@
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(57/16)</v>
       </c>
       <c r="D186">
         <v>8</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_16</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -11069,10 +11070,10 @@
         <v>58</v>
       </c>
       <c r="N186" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AL186" s="4">
+      <c r="AK186" s="4">
         <v>1</v>
       </c>
       <c r="AP186" s="4">
@@ -11090,14 +11091,14 @@
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(58/17)</v>
       </c>
       <c r="D187">
         <v>8</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_17</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -11118,10 +11119,10 @@
         <v>58</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AF187" s="4">
+      <c r="AE187" s="4">
         <v>1</v>
       </c>
       <c r="AQ187" s="4">
@@ -11142,14 +11143,14 @@
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(59/18)</v>
       </c>
       <c r="D188">
         <v>8</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_18</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -11172,10 +11173,10 @@
         <v>58</v>
       </c>
       <c r="N188" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AL188" s="4">
+      <c r="AK188" s="4">
         <v>1</v>
       </c>
       <c r="AP188" s="4">
@@ -11196,14 +11197,14 @@
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(60/19)</v>
       </c>
       <c r="D189">
         <v>8</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_19</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -11226,7 +11227,7 @@
         <v>58</v>
       </c>
       <c r="N189" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AP189" s="4">
@@ -11250,14 +11251,14 @@
         <v>44824</v>
       </c>
       <c r="C190" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>S(61/20)</v>
       </c>
       <c r="D190">
         <v>8</v>
       </c>
       <c r="E190" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_20</v>
       </c>
       <c r="F190" s="17" t="s">
@@ -11273,17 +11274,17 @@
         <v>0</v>
       </c>
       <c r="J190" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K190" s="17"/>
       <c r="L190" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N190" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AL190" s="18">
+      <c r="AK190" s="18">
         <v>1</v>
       </c>
       <c r="AP190" s="18">
@@ -11307,14 +11308,14 @@
         <v>44824</v>
       </c>
       <c r="C191" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
       <c r="D191">
         <v>8</v>
       </c>
       <c r="E191" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_21</v>
       </c>
       <c r="F191" s="6" t="s">
@@ -11340,10 +11341,10 @@
         <v>11</v>
       </c>
       <c r="N191" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="AL191" s="4">
+      <c r="AK191" s="4">
         <v>6</v>
       </c>
       <c r="AP191" s="4">
@@ -11367,14 +11368,14 @@
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>W(63/22)</v>
       </c>
       <c r="D192">
         <v>8</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_22</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -11395,7 +11396,7 @@
         <v>58</v>
       </c>
       <c r="N192" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AP192" s="4">
@@ -11413,14 +11414,14 @@
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>F(64/23)</v>
       </c>
       <c r="D193">
         <v>8</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>8_23</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -11441,10 +11442,10 @@
         <v>58</v>
       </c>
       <c r="N193" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AL193" s="4">
+      <c r="AK193" s="4">
         <v>2</v>
       </c>
       <c r="AP193" s="4">
@@ -11516,31 +11517,31 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -11832,31 +11833,31 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -11999,31 +12000,31 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -12391,31 +12392,31 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -13019,31 +13020,31 @@
         <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -13348,31 +13349,31 @@
         <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -15493,31 +15494,31 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -15696,31 +15697,31 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -19090,16 +19091,16 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19400,16 +19401,16 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -19558,16 +19559,16 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -19941,16 +19942,16 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -20565,16 +20566,16 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -20876,16 +20877,16 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -22975,16 +22976,16 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -23167,16 +23168,16 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -26590,64 +26591,64 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD1" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>
@@ -27140,64 +27141,64 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -27430,64 +27431,64 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -28106,64 +28107,64 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -29171,64 +29172,64 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
@@ -29729,64 +29730,64 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
@@ -33279,64 +33280,64 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
@@ -33635,64 +33636,64 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>

--- a/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
+++ b/PNR_Raw_Data/PNR2022_Aaron_pinned_InvertebrateCommunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3210" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F961FF45-6F97-4C0F-8AC4-0FEB48A1C765}"/>
+  <xr:revisionPtr revIDLastSave="3211" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B24007E-DBFC-4CC4-8329-9C4B58A59F51}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Cyclotrachelus_fucatus</t>
-  </si>
-  <si>
-    <t>Cyclotrachelus_unknown_likely_sigillatus_or_convivus_or_mixed</t>
   </si>
   <si>
     <t>Carabus_goryi</t>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>Pseudamara_arenaria</t>
+  </si>
+  <si>
+    <t>Cyclotrachelus_sigillatus</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -984,10 +984,10 @@
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -1024,22 +1024,22 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1055,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO41" sqref="AO41"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -1147,34 +1147,34 @@
         <v>27</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="O1" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>42</v>
       </c>
       <c r="V1" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W1" s="23" t="s">
         <v>43</v>
@@ -1183,13 +1183,13 @@
         <v>49</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="Z1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="AB1" s="23" t="s">
         <v>47</v>
@@ -1201,7 +1201,7 @@
         <v>46</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF1" s="23" t="s">
         <v>29</v>
@@ -1210,10 +1210,10 @@
         <v>33</v>
       </c>
       <c r="AH1" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI1" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ1" s="23" t="s">
         <v>45</v>
@@ -1228,10 +1228,10 @@
         <v>41</v>
       </c>
       <c r="AN1" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AO1" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="23" t="s">
         <v>23</v>
@@ -1264,31 +1264,31 @@
         <v>28</v>
       </c>
       <c r="AZ1" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BA1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BD1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BF1" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="BF1" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="BG1" s="24" t="s">
         <v>44</v>
       </c>
       <c r="BH1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
@@ -1322,17 +1322,17 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" s="4">
         <v>2</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM(P2:BH2)</f>
+        <f t="shared" ref="N2:N8" si="2">SUM(P2:BH2)</f>
         <v>2</v>
       </c>
       <c r="BF2" s="4">
@@ -1372,13 +1372,13 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3" s="4">
         <v>1</v>
       </c>
       <c r="N3" s="4">
-        <f>SUM(P3:BH3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BB3" s="4">
@@ -1416,17 +1416,17 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f>SUM(P4:BH4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BH4" s="4">
@@ -1468,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(P5:BH5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AV5" s="4">
@@ -1514,13 +1514,13 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="4">
         <v>2</v>
       </c>
       <c r="N6" s="4">
-        <f>SUM(P6:BH6)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC6" s="4">
@@ -1563,13 +1563,13 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="4">
         <v>6</v>
       </c>
       <c r="N7" s="4">
-        <f>SUM(P7:BH7)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB7" s="4">
@@ -1615,13 +1615,13 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f>SUM(P8:BH8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1660,151 +1660,151 @@
         <v>9</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BH9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
@@ -1840,7 +1840,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="4">
         <v>4</v>
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -1934,7 +1934,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="4">
         <v>5</v>
@@ -1984,155 +1984,155 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AZ13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
@@ -2168,13 +2168,13 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
       </c>
       <c r="N14" s="4">
-        <f>SUM(P14:BH14)</f>
+        <f t="shared" ref="N14:N22" si="3">SUM(P14:BH14)</f>
         <v>1</v>
       </c>
       <c r="O14" s="4">
@@ -2217,13 +2217,13 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f>SUM(P15:BH15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2260,13 +2260,13 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" s="4">
         <v>7</v>
       </c>
       <c r="N16" s="4">
-        <f>SUM(P16:BH16)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="U16" s="4">
@@ -2318,13 +2318,13 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>SUM(P17:BH17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2363,13 +2363,13 @@
         <v>8</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f>SUM(P18:BH18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2408,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>SUM(P19:BH19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2451,13 +2451,13 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="4">
         <v>7</v>
       </c>
       <c r="N20" s="4">
-        <f>SUM(P20:BH20)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="V20" s="4">
@@ -2508,13 +2508,13 @@
         <v>8</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>SUM(P21:BH21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2549,17 +2549,17 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M22" s="4">
         <v>3</v>
       </c>
       <c r="N22" s="4">
-        <f>SUM(P22:BH22)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC22" s="4">
@@ -2607,151 +2607,151 @@
         <v>9</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AX23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AZ23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BH23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
@@ -2787,13 +2787,13 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" s="4">
         <v>5</v>
       </c>
       <c r="N24" s="4">
-        <f>SUM(P24:BH24)</f>
+        <f t="shared" ref="N24:N38" si="4">SUM(P24:BH24)</f>
         <v>5</v>
       </c>
       <c r="U24" s="4">
@@ -2844,13 +2844,13 @@
         <v>8</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="4">
         <v>4</v>
       </c>
       <c r="N25" s="4">
-        <f>SUM(P25:BH25)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AU25" s="4">
@@ -2898,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <f>SUM(P26:BH26)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2939,19 +2939,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="4">
         <v>1</v>
       </c>
       <c r="N27" s="4">
-        <f>SUM(P27:BH27)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U27" s="4">
@@ -2993,10 +2993,10 @@
         <v>8</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N28" s="4">
-        <f>SUM(P28:BH28)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BF28" s="4">
@@ -3034,19 +3034,19 @@
         <v>1</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M29" s="4">
         <v>2</v>
       </c>
       <c r="N29" s="4">
-        <f>SUM(P29:BH29)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V29" s="4">
@@ -3087,17 +3087,17 @@
         <v>0</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30" s="18">
         <v>5</v>
       </c>
       <c r="N30" s="18">
-        <f>SUM(P30:BH30)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AC30" s="18">
@@ -3143,13 +3143,13 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M31" s="4">
         <v>1</v>
       </c>
       <c r="N31" s="4">
-        <f>SUM(P31:BH31)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AU31" s="4">
@@ -3189,13 +3189,13 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M32" s="4">
         <v>6</v>
       </c>
       <c r="N32" s="4">
-        <f>SUM(P32:BH32)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="U32" s="4">
@@ -3250,13 +3250,13 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="4">
         <v>5</v>
       </c>
       <c r="N33" s="4">
-        <f>SUM(P33:BH33)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="V33" s="4">
@@ -3277,14 +3277,14 @@
         <v>44741</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f t="shared" ref="C34:C65" si="2">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
+        <f t="shared" ref="C34:C65" si="5">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" ref="E34:E65" si="3">_xlfn.CONCAT(D34,"_",H34)</f>
+        <f t="shared" ref="E34:E65" si="6">_xlfn.CONCAT(D34,"_",H34)</f>
         <v>2_8</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -3300,17 +3300,17 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
       </c>
       <c r="N34" s="4">
-        <f>SUM(P34:BH34)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="T34" s="4">
@@ -3337,14 +3337,14 @@
         <v>44741</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(50/9)</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_9</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -3362,13 +3362,13 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M35" s="4">
         <v>4</v>
       </c>
       <c r="N35" s="4">
-        <f>SUM(P35:BH35)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AR35" s="4">
@@ -3386,14 +3386,14 @@
         <v>44741</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(51/10)</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_10</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -3411,10 +3411,10 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N36" s="4">
-        <f>SUM(P36:BH36)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="W36" s="4">
@@ -3441,14 +3441,14 @@
         <v>44741</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(52/11)</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_11</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -3468,10 +3468,10 @@
         <v>8</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N37" s="4">
-        <f>SUM(P37:BH37)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM37" s="4">
@@ -3489,14 +3489,14 @@
         <v>44741</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(53/12)</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_12</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -3514,13 +3514,13 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M38" s="4">
         <v>2</v>
       </c>
       <c r="N38" s="4">
-        <f>SUM(P38:BH38)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ38" s="4">
@@ -3538,14 +3538,14 @@
         <v>44741</v>
       </c>
       <c r="C39" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(54/13)</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_13</v>
       </c>
       <c r="F39" s="15" t="s">
@@ -3565,151 +3565,151 @@
         <v>9</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
@@ -3720,14 +3720,14 @@
         <v>44741</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(55/14)</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_14</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -3745,13 +3745,13 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
       </c>
       <c r="N40" s="4">
-        <f>SUM(P40:BH40)</f>
+        <f t="shared" ref="N40:N46" si="7">SUM(P40:BH40)</f>
         <v>0</v>
       </c>
     </row>
@@ -3763,14 +3763,14 @@
         <v>44741</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(56/15)</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_15</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -3786,17 +3786,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M41" s="4">
         <v>9</v>
       </c>
       <c r="N41" s="4">
-        <f>SUM(P41:BH41)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U41" s="4">
@@ -3820,14 +3820,14 @@
         <v>44741</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(57/16)</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_16</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -3845,10 +3845,10 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N42" s="4">
-        <f>SUM(P42:BH42)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Y42" s="4">
@@ -3869,14 +3869,14 @@
         <v>44741</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(58/17)</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_17</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -3894,10 +3894,10 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" s="4">
-        <f>SUM(P43:BH43)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE43" s="4">
@@ -3915,14 +3915,14 @@
         <v>44741</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(59/18)</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_18</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3940,13 +3940,13 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M44" s="4">
         <v>4</v>
       </c>
       <c r="N44" s="4">
-        <f>SUM(P44:BH44)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Y44" s="4">
@@ -3970,14 +3970,14 @@
         <v>44741</v>
       </c>
       <c r="C45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_19</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -3997,13 +3997,13 @@
         <v>8</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <f>SUM(P45:BH45)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4015,14 +4015,14 @@
         <v>44741</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(61/20)</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_20</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -4042,13 +4042,13 @@
         <v>8</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M46" s="4">
         <v>1</v>
       </c>
       <c r="N46" s="4">
-        <f>SUM(P46:BH46)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="BF46" s="4">
@@ -4063,14 +4063,14 @@
         <v>44741</v>
       </c>
       <c r="C47" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(62/21)</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_21</v>
       </c>
       <c r="F47" s="15" t="s">
@@ -4090,151 +4090,151 @@
         <v>9</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AX47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AZ47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BH47" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
@@ -4245,14 +4245,14 @@
         <v>44741</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(63/22)</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_22</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -4270,13 +4270,13 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
       </c>
       <c r="N48" s="4">
-        <f>SUM(P48:BH48)</f>
+        <f t="shared" ref="N48:N79" si="8">SUM(P48:BH48)</f>
         <v>0</v>
       </c>
     </row>
@@ -4288,14 +4288,14 @@
         <v>44741</v>
       </c>
       <c r="C49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(64/23)</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2_23</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -4315,13 +4315,13 @@
         <v>10</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M49" s="4">
         <v>2</v>
       </c>
       <c r="N49" s="4">
-        <f>SUM(P49:BH49)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AC49" s="4">
@@ -4339,14 +4339,14 @@
         <v>44755</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(41/0)</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_0</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -4364,10 +4364,10 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N50" s="4">
-        <f>SUM(P50:BH50)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z50" s="4">
@@ -4385,14 +4385,14 @@
         <v>44755</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(42/1)</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_1</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -4410,10 +4410,10 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N51" s="4">
-        <f>SUM(P51:BH51)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AP51" s="4">
@@ -4428,14 +4428,14 @@
         <v>44755</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(43/2)</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_2</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -4453,10 +4453,10 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N52" s="4">
-        <f>SUM(P52:BH52)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AV52" s="4">
@@ -4471,14 +4471,14 @@
         <v>44755</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(44/3)</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_3</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -4496,10 +4496,10 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N53" s="4">
-        <f>SUM(P53:BH53)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="V53" s="4">
@@ -4520,14 +4520,14 @@
         <v>44755</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(45/4)</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_4</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -4545,13 +4545,13 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M54" s="4">
         <v>3</v>
       </c>
       <c r="N54" s="4">
-        <f>SUM(P54:BH54)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AR54" s="4">
@@ -4572,14 +4572,14 @@
         <v>44755</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(46/5)</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_5</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -4597,10 +4597,10 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N55" s="4">
-        <f>SUM(P55:BH55)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AR55" s="4">
@@ -4621,14 +4621,14 @@
         <v>44755</v>
       </c>
       <c r="C56" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(47/6)</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_6</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -4646,11 +4646,11 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="4">
-        <f>SUM(P56:BH56)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AK56" s="4">
@@ -4671,14 +4671,14 @@
         <v>44755</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(48/7)</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_7</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -4696,10 +4696,10 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N57" s="4">
-        <f>SUM(P57:BH57)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4711,14 +4711,14 @@
         <v>44755</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(49/8)</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_8</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -4736,10 +4736,10 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N58" s="4">
-        <f>SUM(P58:BH58)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="T58" s="4">
@@ -4763,14 +4763,14 @@
         <v>44755</v>
       </c>
       <c r="C59" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(50/9)</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_9</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -4788,10 +4788,10 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N59" s="4">
-        <f>SUM(P59:BH59)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC59" s="4">
@@ -4806,14 +4806,14 @@
         <v>44755</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(51/10)</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_10</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -4831,10 +4831,10 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N60" s="4">
-        <f>SUM(P60:BH60)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="W60" s="4">
@@ -4867,14 +4867,14 @@
         <v>44755</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(52/11)</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_11</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -4892,10 +4892,10 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N61" s="4">
-        <f>SUM(P61:BH61)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="U61" s="4">
@@ -4931,14 +4931,14 @@
         <v>44755</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>S(53/12)</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_12</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -4956,10 +4956,10 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N62" s="4">
-        <f>SUM(P62:BH62)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AP62" s="4">
@@ -4977,14 +4977,14 @@
         <v>44755</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(54/13)</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_13</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -5002,10 +5002,10 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N63" s="4">
-        <f>SUM(P63:BH63)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AV63" s="4">
@@ -5023,14 +5023,14 @@
         <v>44755</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>W(55/14)</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_14</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5048,10 +5048,10 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N64" s="4">
-        <f>SUM(P64:BH64)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AU64" s="4">
@@ -5069,14 +5069,14 @@
         <v>44755</v>
       </c>
       <c r="C65" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>F(56/15)</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3_15</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -5094,10 +5094,10 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N65" s="4">
-        <f>SUM(P65:BH65)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="U65" s="4">
@@ -5124,14 +5124,14 @@
         <v>44755</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:C97" si="4">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <f t="shared" ref="C66:C97" si="9">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E97" si="5">_xlfn.CONCAT(D66,"_",H66)</f>
+        <f t="shared" ref="E66:E97" si="10">_xlfn.CONCAT(D66,"_",H66)</f>
         <v>3_16</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -5149,10 +5149,10 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N66" s="4">
-        <f>SUM(P66:BH66)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="W66" s="4">
@@ -5176,14 +5176,14 @@
         <v>44755</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(58/17)</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_17</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -5201,10 +5201,10 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N67" s="4">
-        <f>SUM(P67:BH67)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW67" s="4">
@@ -5219,14 +5219,14 @@
         <v>44755</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(59/18)</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_18</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -5244,10 +5244,10 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N68" s="4">
-        <f>SUM(P68:BH68)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AP68" s="4">
@@ -5265,14 +5265,14 @@
         <v>44755</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(60/19)</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_19</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -5290,10 +5290,10 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N69" s="4">
-        <f>SUM(P69:BH69)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AP69" s="4">
@@ -5308,14 +5308,14 @@
         <v>44755</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(61/20)</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_20</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -5333,13 +5333,13 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <f>SUM(P70:BH70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5351,14 +5351,14 @@
         <v>44755</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(62/21)</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_21</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -5376,10 +5376,10 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N71" s="4">
-        <f>SUM(P71:BH71)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Y71" s="4">
@@ -5403,14 +5403,14 @@
         <v>44755</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(63/22)</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_22</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -5428,10 +5428,10 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N72" s="4">
-        <f>SUM(P72:BH72)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y72" s="4">
@@ -5449,14 +5449,14 @@
         <v>44755</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(64/23)</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3_23</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -5476,10 +5476,10 @@
         <v>8</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N73" s="4">
-        <f>SUM(P73:BH73)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Y73" s="4">
@@ -5500,14 +5500,14 @@
         <v>44769</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(41/0)</v>
       </c>
       <c r="D74">
         <v>4</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -5525,10 +5525,10 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N74" s="4">
-        <f>SUM(P74:BH74)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V74" s="4">
@@ -5552,14 +5552,14 @@
         <v>44769</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(42/1)</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_1</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -5577,10 +5577,10 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N75" s="4">
-        <f>SUM(P75:BH75)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AP75" s="4">
@@ -5598,14 +5598,14 @@
         <v>44769</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(43/2)</v>
       </c>
       <c r="D76">
         <v>4</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_2</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -5623,10 +5623,10 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N76" s="4">
-        <f>SUM(P76:BH76)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AU76" s="4">
@@ -5650,14 +5650,14 @@
         <v>44769</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(44/3)</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_3</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -5673,17 +5673,17 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M77" s="4">
         <v>3</v>
       </c>
       <c r="N77" s="4">
-        <f>SUM(P77:BH77)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V77" s="4">
@@ -5701,14 +5701,14 @@
         <v>44769</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(45/4)</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_4</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -5726,10 +5726,10 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N78" s="4">
-        <f>SUM(P78:BH78)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AR78" s="4">
@@ -5744,14 +5744,14 @@
         <v>44769</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(46/5)</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_5</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -5767,14 +5767,14 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N79" s="4">
-        <f>SUM(P79:BH79)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AP79" s="4">
@@ -5795,14 +5795,14 @@
         <v>44769</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(47/6)</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_6</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -5820,10 +5820,10 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N80" s="4">
-        <f>SUM(P80:BH80)</f>
+        <f t="shared" ref="N80:N101" si="11">SUM(P80:BH80)</f>
         <v>5</v>
       </c>
       <c r="AP80" s="4">
@@ -5841,14 +5841,14 @@
         <v>44769</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(48/7)</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_7</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -5866,10 +5866,10 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N81" s="4">
-        <f>SUM(P81:BH81)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="V81" s="4">
@@ -5890,14 +5890,14 @@
         <v>44769</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(49/8)</v>
       </c>
       <c r="D82">
         <v>4</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_8</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -5915,10 +5915,10 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N82" s="4">
-        <f>SUM(P82:BH82)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Y82" s="4">
@@ -5939,14 +5939,14 @@
         <v>44769</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(50/9)</v>
       </c>
       <c r="D83">
         <v>4</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_9</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -5964,10 +5964,10 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N83" s="4">
-        <f>SUM(P83:BH83)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AU83" s="4">
@@ -5982,14 +5982,14 @@
         <v>44769</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(51/10)</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_10</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -6007,10 +6007,10 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N84" s="4">
-        <f>SUM(P84:BH84)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Y84" s="4">
@@ -6031,14 +6031,14 @@
         <v>44769</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(52/11)</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_11</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -6056,10 +6056,10 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N85" s="4">
-        <f>SUM(P85:BH85)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6071,14 +6071,14 @@
         <v>44769</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(53/12)</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_12</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -6096,10 +6096,10 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N86" s="4">
-        <f>SUM(P86:BH86)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AU86" s="4">
@@ -6117,14 +6117,14 @@
         <v>44769</v>
       </c>
       <c r="C87" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(54/13)</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_13</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -6142,13 +6142,13 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M87" s="4">
         <v>9</v>
       </c>
       <c r="N87" s="4">
-        <f>SUM(P87:BH87)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="W87" s="4">
@@ -6178,14 +6178,14 @@
         <v>44769</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(55/14)</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_14</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -6203,10 +6203,10 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N88" s="4">
-        <f>SUM(P88:BH88)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="V88" s="4">
@@ -6233,14 +6233,14 @@
         <v>44769</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(56/15)</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_15</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -6258,10 +6258,10 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N89" s="4">
-        <f>SUM(P89:BH89)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AE89" s="4">
@@ -6282,14 +6282,14 @@
         <v>44769</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(57/16)</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_16</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -6307,10 +6307,10 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N90" s="4">
-        <f>SUM(P90:BH90)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AE90" s="4">
@@ -6337,14 +6337,14 @@
         <v>44769</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(58/17)</v>
       </c>
       <c r="D91">
         <v>4</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_17</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -6362,10 +6362,10 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N91" s="4">
-        <f>SUM(P91:BH91)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="Y91" s="4">
@@ -6386,14 +6386,14 @@
         <v>44769</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(59/18)</v>
       </c>
       <c r="D92">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_18</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -6411,10 +6411,10 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N92" s="4">
-        <f>SUM(P92:BH92)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Y92" s="4">
@@ -6438,14 +6438,14 @@
         <v>44769</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(60/19)</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_19</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -6461,14 +6461,14 @@
         <v>0</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N93" s="4">
-        <f>SUM(P93:BH93)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="V93" s="4">
@@ -6486,14 +6486,14 @@
         <v>44769</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>S(61/20)</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_20</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -6511,10 +6511,10 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N94" s="4">
-        <f>SUM(P94:BH94)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="V94" s="4">
@@ -6532,14 +6532,14 @@
         <v>44769</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(62/21)</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_21</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -6557,10 +6557,10 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N95" s="4">
-        <f>SUM(P95:BH95)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="T95" s="4">
@@ -6590,14 +6590,14 @@
         <v>44769</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>W(63/22)</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_22</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -6615,10 +6615,10 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N96" s="4">
-        <f>SUM(P96:BH96)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="Y96" s="4">
@@ -6642,14 +6642,14 @@
         <v>44769</v>
       </c>
       <c r="C97" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F(64/23)</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4_23</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -6667,10 +6667,10 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N97" s="4">
-        <f>SUM(P97:BH97)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Y97" s="4">
@@ -6688,14 +6688,14 @@
         <v>44784</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f t="shared" ref="C98:C129" si="6">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
+        <f t="shared" ref="C98:C129" si="12">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
         <v>F(41/0)</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" ref="E98:E129" si="7">_xlfn.CONCAT(D98,"_",H98)</f>
+        <f t="shared" ref="E98:E129" si="13">_xlfn.CONCAT(D98,"_",H98)</f>
         <v>5_0</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -6713,10 +6713,10 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N98" s="4">
-        <f>SUM(P98:BH98)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AP98" s="4">
@@ -6743,14 +6743,14 @@
         <v>44784</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(42/1)</v>
       </c>
       <c r="D99">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_1</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -6768,10 +6768,10 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N99" s="4">
-        <f>SUM(P99:BH99)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE99" s="4">
@@ -6786,14 +6786,14 @@
         <v>44784</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(43/2)</v>
       </c>
       <c r="D100">
         <v>5</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_2</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -6811,10 +6811,10 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N100" s="4">
-        <f>SUM(P100:BH100)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BF100" s="4">
@@ -6829,14 +6829,14 @@
         <v>44784</v>
       </c>
       <c r="C101" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(44/3)</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_3</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -6854,10 +6854,10 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N101" s="4">
-        <f>SUM(P101:BH101)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AZ101" s="4">
@@ -6872,14 +6872,14 @@
         <v>44784</v>
       </c>
       <c r="C102" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(45/4)</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_4</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -6897,7 +6897,7 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.35">
@@ -6908,14 +6908,14 @@
         <v>44784</v>
       </c>
       <c r="C103" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(46/5)</v>
       </c>
       <c r="D103">
         <v>5</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_5</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -6933,10 +6933,10 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N103" s="4">
-        <f>SUM(P103:BH103)</f>
+        <f t="shared" ref="N103:N134" si="14">SUM(P103:BH103)</f>
         <v>3</v>
       </c>
       <c r="AN103" s="4">
@@ -6957,14 +6957,14 @@
         <v>44784</v>
       </c>
       <c r="C104" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(47/6)</v>
       </c>
       <c r="D104">
         <v>5</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_6</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -6982,10 +6982,10 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N104" s="4">
-        <f>SUM(P104:BH104)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="V104" s="4">
@@ -7024,14 +7024,14 @@
         <v>44784</v>
       </c>
       <c r="C105" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(48/7)</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_7</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -7049,10 +7049,10 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N105" s="4">
-        <f>SUM(P105:BH105)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="V105" s="4">
@@ -7073,14 +7073,14 @@
         <v>44784</v>
       </c>
       <c r="C106" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(49/8)</v>
       </c>
       <c r="D106">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_8</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -7098,10 +7098,10 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N106" s="4">
-        <f>SUM(P106:BH106)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="R106" s="4">
@@ -7125,14 +7125,14 @@
         <v>44784</v>
       </c>
       <c r="C107" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(50/9)</v>
       </c>
       <c r="D107">
         <v>5</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_9</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -7150,13 +7150,13 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M107" s="4">
         <v>4</v>
       </c>
       <c r="N107" s="4">
-        <f>SUM(P107:BH107)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AK107" s="4">
@@ -7174,14 +7174,14 @@
         <v>44784</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(51/10)</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_10</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -7199,13 +7199,13 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M108" s="4">
         <v>3</v>
       </c>
       <c r="N108" s="4">
-        <f>SUM(P108:BH108)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AV108" s="4">
@@ -7226,14 +7226,14 @@
         <v>44784</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(52/11)</v>
       </c>
       <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_11</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -7249,17 +7249,17 @@
         <v>0</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M109" s="4">
         <v>16</v>
       </c>
       <c r="N109" s="4">
-        <f>SUM(P109:BH109)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="T109" s="4">
@@ -7292,14 +7292,14 @@
         <v>44784</v>
       </c>
       <c r="C110" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(53/12)</v>
       </c>
       <c r="D110">
         <v>5</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_12</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -7317,10 +7317,10 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N110" s="4">
-        <f>SUM(P110:BH110)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="Y110" s="4">
@@ -7347,14 +7347,14 @@
         <v>44784</v>
       </c>
       <c r="C111" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(54/13)</v>
       </c>
       <c r="D111">
         <v>5</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_13</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -7372,10 +7372,10 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N111" s="4">
-        <f>SUM(P111:BH111)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="AC111" s="4">
@@ -7396,14 +7396,14 @@
         <v>44784</v>
       </c>
       <c r="C112" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(55/14)</v>
       </c>
       <c r="D112">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_14</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -7421,10 +7421,10 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N112" s="4">
-        <f>SUM(P112:BH112)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BF112" s="4">
@@ -7439,14 +7439,14 @@
         <v>44784</v>
       </c>
       <c r="C113" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(56/15)</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_15</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -7464,10 +7464,10 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N113" s="4">
-        <f>SUM(P113:BH113)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,14 +7479,14 @@
         <v>44784</v>
       </c>
       <c r="C114" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(57/16)</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_16</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -7504,10 +7504,10 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N114" s="4">
-        <f>SUM(P114:BH114)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U114" s="4">
@@ -7540,14 +7540,14 @@
         <v>44784</v>
       </c>
       <c r="C115" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(58/17)</v>
       </c>
       <c r="D115">
         <v>5</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_17</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -7565,10 +7565,10 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N115" s="4">
-        <f>SUM(P115:BH115)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="V115" s="4">
@@ -7586,14 +7586,14 @@
         <v>44784</v>
       </c>
       <c r="C116" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(59/18)</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_18</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -7611,13 +7611,13 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M116" s="4">
         <v>1</v>
       </c>
       <c r="N116" s="4">
-        <f>SUM(P116:BH116)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BB116" s="4">
@@ -7632,14 +7632,14 @@
         <v>44784</v>
       </c>
       <c r="C117" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(60/19)</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_19</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -7657,10 +7657,10 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N117" s="4">
-        <f>SUM(P117:BH117)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="V117" s="4">
@@ -7681,14 +7681,14 @@
         <v>44784</v>
       </c>
       <c r="C118" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(61/20)</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_20</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -7706,10 +7706,10 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N118" s="4">
-        <f>SUM(P118:BH118)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="Y118" s="4">
@@ -7733,14 +7733,14 @@
         <v>44784</v>
       </c>
       <c r="C119" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(62/21)</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_21</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -7758,10 +7758,10 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N119" s="4">
-        <f>SUM(P119:BH119)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Y119" s="4">
@@ -7776,14 +7776,14 @@
         <v>44784</v>
       </c>
       <c r="C120" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(63/22)</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_22</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -7801,10 +7801,10 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N120" s="4">
-        <f>SUM(P120:BH120)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="Y120" s="4">
@@ -7831,14 +7831,14 @@
         <v>44784</v>
       </c>
       <c r="C121" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(64/23)</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5_23</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -7856,10 +7856,10 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N121" s="4">
-        <f>SUM(P121:BH121)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="V121" s="4">
@@ -7886,14 +7886,14 @@
         <v>44796</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(41/0)</v>
       </c>
       <c r="D122">
         <v>6</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_0</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -7911,13 +7911,13 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M122" s="4">
         <v>2</v>
       </c>
       <c r="N122" s="4">
-        <f>SUM(P122:BH122)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BF122" s="4">
@@ -7932,14 +7932,14 @@
         <v>44796</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(42/1)</v>
       </c>
       <c r="D123">
         <v>6</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_1</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -7957,13 +7957,13 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M123" s="4">
         <v>1</v>
       </c>
       <c r="N123" s="4">
-        <f>SUM(P123:BH123)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AV123" s="4">
@@ -7978,14 +7978,14 @@
         <v>44796</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(43/2)</v>
       </c>
       <c r="D124">
         <v>6</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -8003,10 +8003,10 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N124" s="4">
-        <f>SUM(P124:BH124)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AZ124" s="4">
@@ -8021,14 +8021,14 @@
         <v>44796</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(44/3)</v>
       </c>
       <c r="D125">
         <v>6</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_3</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -8046,10 +8046,10 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N125" s="4">
-        <f>SUM(P125:BH125)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AP125" s="4">
@@ -8067,14 +8067,14 @@
         <v>44796</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(45/4)</v>
       </c>
       <c r="D126">
         <v>6</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_4</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -8092,13 +8092,13 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M126" s="4">
         <v>2</v>
       </c>
       <c r="N126" s="4">
-        <f>SUM(P126:BH126)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AP126" s="4">
@@ -8116,14 +8116,14 @@
         <v>44796</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>S(46/5)</v>
       </c>
       <c r="D127">
         <v>6</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_5</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -8143,13 +8143,13 @@
         <v>11</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M127" s="4">
         <v>4</v>
       </c>
       <c r="N127" s="4">
-        <f>SUM(P127:BH127)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AR127" s="4">
@@ -8173,14 +8173,14 @@
         <v>44796</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>W(47/6)</v>
       </c>
       <c r="D128">
         <v>6</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_6</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -8198,13 +8198,13 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M128" s="4">
         <v>10</v>
       </c>
       <c r="N128" s="4">
-        <f>SUM(P128:BH128)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AK128" s="4">
@@ -8231,14 +8231,14 @@
         <v>44796</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>F(48/7)</v>
       </c>
       <c r="D129">
         <v>6</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6_7</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -8256,13 +8256,13 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M129" s="4">
         <v>6</v>
       </c>
       <c r="N129" s="4">
-        <f>SUM(P129:BH129)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="V129" s="4">
@@ -8286,14 +8286,14 @@
         <v>44796</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" ref="C130:C161" si="8">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="C130:C161" si="15">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="D130">
         <v>6</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" ref="E130:E161" si="9">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E161" si="16">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>6_8</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -8311,13 +8311,13 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M130" s="4">
         <v>11</v>
       </c>
       <c r="N130" s="4">
-        <f>SUM(P130:BH130)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="AP130" s="4">
@@ -8335,14 +8335,14 @@
         <v>44796</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(50/9)</v>
       </c>
       <c r="D131">
         <v>6</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_9</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -8360,13 +8360,13 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M131" s="4">
         <v>2</v>
       </c>
       <c r="N131" s="4">
-        <f>SUM(P131:BH131)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AP131" s="4">
@@ -8384,14 +8384,14 @@
         <v>44796</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(51/10)</v>
       </c>
       <c r="D132">
         <v>6</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_10</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -8409,10 +8409,10 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N132" s="4">
-        <f>SUM(P132:BH132)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AP132" s="4">
@@ -8433,14 +8433,14 @@
         <v>44796</v>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(52/11)</v>
       </c>
       <c r="D133">
         <v>6</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_11</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -8458,13 +8458,13 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M133" s="4">
         <v>7</v>
       </c>
       <c r="N133" s="4">
-        <f>SUM(P133:BH133)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AC133" s="4">
@@ -8491,14 +8491,14 @@
         <v>44796</v>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(53/12)</v>
       </c>
       <c r="D134">
         <v>6</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_12</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -8516,13 +8516,13 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M134" s="4">
         <v>4</v>
       </c>
       <c r="N134" s="4">
-        <f>SUM(P134:BH134)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="W134" s="4">
@@ -8546,14 +8546,14 @@
         <v>44796</v>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(54/13)</v>
       </c>
       <c r="D135">
         <v>6</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_13</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -8571,13 +8571,13 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
       </c>
       <c r="N135" s="4">
-        <f>SUM(P135:BH135)</f>
+        <f t="shared" ref="N135:N171" si="17">SUM(P135:BH135)</f>
         <v>0</v>
       </c>
     </row>
@@ -8589,14 +8589,14 @@
         <v>44796</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(55/14)</v>
       </c>
       <c r="D136">
         <v>6</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_14</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -8614,13 +8614,13 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M136" s="4">
         <v>2</v>
       </c>
       <c r="N136" s="4">
-        <f>SUM(P136:BH136)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AU136" s="4">
@@ -8638,14 +8638,14 @@
         <v>44796</v>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(56/15)</v>
       </c>
       <c r="D137">
         <v>6</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_15</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -8663,13 +8663,13 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M137" s="4">
         <v>0</v>
       </c>
       <c r="N137" s="4">
-        <f>SUM(P137:BH137)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -8681,14 +8681,14 @@
         <v>44796</v>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(57/16)</v>
       </c>
       <c r="D138">
         <v>6</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_16</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -8706,13 +8706,13 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M138" s="4">
         <v>1</v>
       </c>
       <c r="N138" s="4">
-        <f>SUM(P138:BH138)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AK138" s="4">
@@ -8727,14 +8727,14 @@
         <v>44796</v>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(58/17)</v>
       </c>
       <c r="D139">
         <v>6</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_17</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -8752,13 +8752,13 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M139" s="4">
         <v>3</v>
       </c>
       <c r="N139" s="4">
-        <f>SUM(P139:BH139)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="V139" s="4">
@@ -8779,14 +8779,14 @@
         <v>44796</v>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(59/18)</v>
       </c>
       <c r="D140">
         <v>6</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_18</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -8804,13 +8804,13 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M140" s="4">
         <v>3</v>
       </c>
       <c r="N140" s="4">
-        <f>SUM(P140:BH140)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AK140" s="4">
@@ -8828,14 +8828,14 @@
         <v>44796</v>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(60/19)</v>
       </c>
       <c r="D141">
         <v>6</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_19</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -8853,13 +8853,13 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M141" s="4">
         <v>3</v>
       </c>
       <c r="N141" s="4">
-        <f>SUM(P141:BH141)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AV141" s="4">
@@ -8877,14 +8877,14 @@
         <v>44796</v>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(61/20)</v>
       </c>
       <c r="D142">
         <v>6</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_20</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -8902,10 +8902,10 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N142" s="4">
-        <f>SUM(P142:BH142)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="AP142" s="4">
@@ -8926,14 +8926,14 @@
         <v>44796</v>
       </c>
       <c r="C143" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(62/21)</v>
       </c>
       <c r="D143">
         <v>6</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_21</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -8951,13 +8951,13 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M143" s="4">
         <v>8</v>
       </c>
       <c r="N143" s="4">
-        <f>SUM(P143:BH143)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="V143" s="4">
@@ -8981,14 +8981,14 @@
         <v>44796</v>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(63/22)</v>
       </c>
       <c r="D144">
         <v>6</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_22</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -9006,13 +9006,13 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M144" s="4">
         <v>5</v>
       </c>
       <c r="N144" s="4">
-        <f>SUM(P144:BH144)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Y144" s="4">
@@ -9033,14 +9033,14 @@
         <v>44796</v>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(64/23)</v>
       </c>
       <c r="D145">
         <v>6</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6_23</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -9058,13 +9058,13 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M145" s="4">
         <v>9</v>
       </c>
       <c r="N145" s="4">
-        <f>SUM(P145:BH145)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="Y145" s="4">
@@ -9091,14 +9091,14 @@
         <v>44810</v>
       </c>
       <c r="C146" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(41/0)</v>
       </c>
       <c r="D146">
         <v>7</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_0</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -9116,13 +9116,13 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M146" s="4">
         <v>2</v>
       </c>
       <c r="N146" s="4">
-        <f>SUM(P146:BH146)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AW146" s="4">
@@ -9140,14 +9140,14 @@
         <v>44810</v>
       </c>
       <c r="C147" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(42/1)</v>
       </c>
       <c r="D147">
         <v>7</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_1</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -9165,13 +9165,13 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
       </c>
       <c r="N147" s="4">
-        <f>SUM(P147:BH147)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -9183,14 +9183,14 @@
         <v>44810</v>
       </c>
       <c r="C148" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(43/2)</v>
       </c>
       <c r="D148">
         <v>7</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_2</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -9208,10 +9208,10 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N148" s="4">
-        <f>SUM(P148:BH148)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AP148" s="4">
@@ -9229,14 +9229,14 @@
         <v>44810</v>
       </c>
       <c r="C149" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(44/3)</v>
       </c>
       <c r="D149">
         <v>7</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_3</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -9254,10 +9254,10 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N149" s="4">
-        <f>SUM(P149:BH149)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="V149" s="4">
@@ -9275,14 +9275,14 @@
         <v>44810</v>
       </c>
       <c r="C150" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(45/4)</v>
       </c>
       <c r="D150">
         <v>7</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_4</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -9300,13 +9300,13 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M150" s="4">
         <v>2</v>
       </c>
       <c r="N150" s="4">
-        <f>SUM(P150:BH150)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AK150" s="4">
@@ -9321,14 +9321,14 @@
         <v>44810</v>
       </c>
       <c r="C151" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(46/5)</v>
       </c>
       <c r="D151">
         <v>7</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_5</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -9346,10 +9346,10 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N151" s="4">
-        <f>SUM(P151:BH151)</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="AK151" s="4">
@@ -9385,14 +9385,14 @@
         <v>44810</v>
       </c>
       <c r="C152" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(47/6)</v>
       </c>
       <c r="D152">
         <v>7</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_6</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -9410,13 +9410,13 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M152" s="4">
         <v>4</v>
       </c>
       <c r="N152" s="4">
-        <f>SUM(P152:BH152)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AK152" s="4">
@@ -9437,14 +9437,14 @@
         <v>44810</v>
       </c>
       <c r="C153" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(48/7)</v>
       </c>
       <c r="D153">
         <v>7</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_7</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -9462,10 +9462,10 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N153" s="4">
-        <f>SUM(P153:BH153)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="V153" s="4">
@@ -9489,14 +9489,14 @@
         <v>44810</v>
       </c>
       <c r="C154" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(49/8)</v>
       </c>
       <c r="D154">
         <v>7</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_8</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -9514,13 +9514,13 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M154" s="4">
         <v>4</v>
       </c>
       <c r="N154" s="4">
-        <f>SUM(P154:BH154)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AK154" s="4">
@@ -9538,14 +9538,14 @@
         <v>44810</v>
       </c>
       <c r="C155" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(50/9)</v>
       </c>
       <c r="D155">
         <v>7</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_9</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -9563,10 +9563,10 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N155" s="4">
-        <f>SUM(P155:BH155)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AR155" s="4">
@@ -9581,14 +9581,14 @@
         <v>44810</v>
       </c>
       <c r="C156" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(51/10)</v>
       </c>
       <c r="D156">
         <v>7</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_10</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -9606,13 +9606,13 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M156" s="4">
         <v>5</v>
       </c>
       <c r="N156" s="4">
-        <f>SUM(P156:BH156)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AP156" s="4">
@@ -9636,14 +9636,14 @@
         <v>44810</v>
       </c>
       <c r="C157" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(52/11)</v>
       </c>
       <c r="D157">
         <v>7</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_11</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -9661,10 +9661,10 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N157" s="4">
-        <f>SUM(P157:BH157)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="AB157" s="4">
@@ -9697,14 +9697,14 @@
         <v>44810</v>
       </c>
       <c r="C158" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>S(53/12)</v>
       </c>
       <c r="D158">
         <v>7</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_12</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -9722,10 +9722,10 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N158" s="4">
-        <f>SUM(P158:BH158)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AK158" s="4">
@@ -9743,14 +9743,14 @@
         <v>44810</v>
       </c>
       <c r="C159" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(54/13)</v>
       </c>
       <c r="D159">
         <v>7</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_13</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -9768,10 +9768,10 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N159" s="4">
-        <f>SUM(P159:BH159)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -9783,14 +9783,14 @@
         <v>44810</v>
       </c>
       <c r="C160" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>W(55/14)</v>
       </c>
       <c r="D160">
         <v>7</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_14</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -9808,10 +9808,10 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N160" s="4">
-        <f>SUM(P160:BH160)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -9823,14 +9823,14 @@
         <v>44810</v>
       </c>
       <c r="C161" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>F(56/15)</v>
       </c>
       <c r="D161">
         <v>7</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7_15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -9848,10 +9848,10 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N161" s="4">
-        <f>SUM(P161:BH161)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="AG161" s="4">
@@ -9872,14 +9872,14 @@
         <v>44810</v>
       </c>
       <c r="C162" s="8" t="str">
-        <f t="shared" ref="C162:C193" si="10">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
+        <f t="shared" ref="C162:C193" si="18">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="D162">
         <v>7</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" ref="E162:E193" si="11">_xlfn.CONCAT(D162,"_",H162)</f>
+        <f t="shared" ref="E162:E193" si="19">_xlfn.CONCAT(D162,"_",H162)</f>
         <v>7_16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -9897,10 +9897,10 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N162" s="4">
-        <f>SUM(P162:BH162)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Y162" s="4">
@@ -9918,14 +9918,14 @@
         <v>44810</v>
       </c>
       <c r="C163" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(58/17)</v>
       </c>
       <c r="D163">
         <v>7</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -9943,10 +9943,10 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N163" s="4">
-        <f>SUM(P163:BH163)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AK163" s="4">
@@ -9964,14 +9964,14 @@
         <v>44810</v>
       </c>
       <c r="C164" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(59/18)</v>
       </c>
       <c r="D164">
         <v>7</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_18</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -9989,10 +9989,10 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N164" s="4">
-        <f>SUM(P164:BH164)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AP164" s="4">
@@ -10007,14 +10007,14 @@
         <v>44810</v>
       </c>
       <c r="C165" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(60/19)</v>
       </c>
       <c r="D165">
         <v>7</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_19</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -10032,10 +10032,10 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N165" s="4">
-        <f>SUM(P165:BH165)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AC165" s="4">
@@ -10053,14 +10053,14 @@
         <v>44810</v>
       </c>
       <c r="C166" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(61/20)</v>
       </c>
       <c r="D166">
         <v>7</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_20</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -10078,13 +10078,13 @@
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M166" s="4">
         <v>2</v>
       </c>
       <c r="N166" s="4">
-        <f>SUM(P166:BH166)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AZ166" s="4">
@@ -10099,14 +10099,14 @@
         <v>44810</v>
       </c>
       <c r="C167" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(62/21)</v>
       </c>
       <c r="D167">
         <v>7</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_21</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -10122,17 +10122,17 @@
         <v>0</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K167" s="6"/>
       <c r="L167" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M167" s="4">
         <v>0</v>
       </c>
       <c r="N167" s="4">
-        <f>SUM(P167:BH167)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10144,14 +10144,14 @@
         <v>44810</v>
       </c>
       <c r="C168" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(63/22)</v>
       </c>
       <c r="D168">
         <v>7</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_22</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -10169,10 +10169,10 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N168" s="4">
-        <f>SUM(P168:BH168)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="AB168" s="4">
@@ -10199,14 +10199,14 @@
         <v>44810</v>
       </c>
       <c r="C169" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(64/23)</v>
       </c>
       <c r="D169">
         <v>7</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7_23</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -10224,10 +10224,10 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N169" s="4">
-        <f>SUM(P169:BH169)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="Q169" s="4">
@@ -10251,14 +10251,14 @@
         <v>44824</v>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(41/0)</v>
       </c>
       <c r="D170">
         <v>8</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_0</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -10276,10 +10276,10 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N170" s="4">
-        <f>SUM(P170:BH170)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AK170" s="4">
@@ -10297,14 +10297,14 @@
         <v>44824</v>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(42/1)</v>
       </c>
       <c r="D171">
         <v>8</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_1</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -10322,10 +10322,10 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N171" s="4">
-        <f>SUM(P171:BH171)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AW171" s="4">
@@ -10346,14 +10346,14 @@
         <v>44824</v>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(43/2)</v>
       </c>
       <c r="D172">
         <v>8</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_2</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -10371,10 +10371,10 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
       <c r="L172" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N172" s="4">
-        <f t="shared" ref="N172:N193" si="12">SUM(P172:BH172)</f>
+        <f t="shared" ref="N172:N193" si="20">SUM(P172:BH172)</f>
         <v>1</v>
       </c>
       <c r="V172" s="4">
@@ -10389,14 +10389,14 @@
         <v>44824</v>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(44/3)</v>
       </c>
       <c r="D173">
         <v>8</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_3</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -10414,10 +10414,10 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N173" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AZ173" s="4">
@@ -10435,14 +10435,14 @@
         <v>44824</v>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(45/4)</v>
       </c>
       <c r="D174">
         <v>8</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_4</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -10460,10 +10460,10 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
       <c r="L174" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N174" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AK174" s="4">
@@ -10478,14 +10478,14 @@
         <v>44824</v>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(46/5)</v>
       </c>
       <c r="D175">
         <v>8</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_5</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -10503,10 +10503,10 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
       <c r="L175" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N175" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="AP175" s="4">
@@ -10530,14 +10530,14 @@
         <v>44824</v>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(47/6)</v>
       </c>
       <c r="D176">
         <v>8</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_6</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -10555,10 +10555,10 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
       <c r="L176" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N176" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AK176" s="4">
@@ -10576,14 +10576,14 @@
         <v>44824</v>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(48/7)</v>
       </c>
       <c r="D177">
         <v>8</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -10603,10 +10603,10 @@
         <v>12</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N177" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="V177" s="4">
@@ -10627,14 +10627,14 @@
         <v>44824</v>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(49/8)</v>
       </c>
       <c r="D178">
         <v>8</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -10652,10 +10652,10 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N178" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="S178" s="4">
@@ -10679,14 +10679,14 @@
         <v>44824</v>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(50/9)</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_9</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -10706,10 +10706,10 @@
         <v>12</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N179" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AK179" s="4">
@@ -10724,14 +10724,14 @@
         <v>44824</v>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(51/10)</v>
       </c>
       <c r="D180">
         <v>8</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_10</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -10749,13 +10749,13 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M180" s="4">
         <v>4</v>
       </c>
       <c r="N180" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AE180" s="4">
@@ -10779,14 +10779,14 @@
         <v>44824</v>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(52/11)</v>
       </c>
       <c r="D181">
         <v>8</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_11</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -10804,13 +10804,13 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M181" s="4">
         <v>12</v>
       </c>
       <c r="N181" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="V181" s="4">
@@ -10834,14 +10834,14 @@
         <v>44824</v>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(53/12)</v>
       </c>
       <c r="D182">
         <v>8</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_12</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -10859,10 +10859,10 @@
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N182" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="AK182" s="4">
@@ -10895,14 +10895,14 @@
         <v>44824</v>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(54/13)</v>
       </c>
       <c r="D183">
         <v>8</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_13</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -10920,10 +10920,10 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N183" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BB183" s="4">
@@ -10941,14 +10941,14 @@
         <v>44824</v>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(55/14)</v>
       </c>
       <c r="D184">
         <v>8</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_14</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -10966,10 +10966,10 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N184" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AG184" s="4">
@@ -10993,14 +10993,14 @@
         <v>44824</v>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(56/15)</v>
       </c>
       <c r="D185">
         <v>8</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_15</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -11018,10 +11018,10 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N185" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="AU185" s="4">
@@ -11042,14 +11042,14 @@
         <v>44824</v>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(57/16)</v>
       </c>
       <c r="D186">
         <v>8</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_16</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -11067,10 +11067,10 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N186" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AK186" s="4">
@@ -11091,14 +11091,14 @@
         <v>44824</v>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(58/17)</v>
       </c>
       <c r="D187">
         <v>8</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_17</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -11116,10 +11116,10 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N187" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AE187" s="4">
@@ -11143,14 +11143,14 @@
         <v>44824</v>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(59/18)</v>
       </c>
       <c r="D188">
         <v>8</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_18</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -11170,10 +11170,10 @@
         <v>13</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N188" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AK188" s="4">
@@ -11197,14 +11197,14 @@
         <v>44824</v>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(60/19)</v>
       </c>
       <c r="D189">
         <v>8</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_19</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -11224,10 +11224,10 @@
         <v>12</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N189" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AP189" s="4">
@@ -11251,14 +11251,14 @@
         <v>44824</v>
       </c>
       <c r="C190" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>S(61/20)</v>
       </c>
       <c r="D190">
         <v>8</v>
       </c>
       <c r="E190" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_20</v>
       </c>
       <c r="F190" s="17" t="s">
@@ -11274,14 +11274,14 @@
         <v>0</v>
       </c>
       <c r="J190" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K190" s="17"/>
       <c r="L190" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N190" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="AK190" s="18">
@@ -11308,14 +11308,14 @@
         <v>44824</v>
       </c>
       <c r="C191" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(62/21)</v>
       </c>
       <c r="D191">
         <v>8</v>
       </c>
       <c r="E191" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_21</v>
       </c>
       <c r="F191" s="6" t="s">
@@ -11331,17 +11331,17 @@
         <v>0</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K191" s="6"/>
       <c r="L191" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M191" s="4">
         <v>11</v>
       </c>
       <c r="N191" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="AK191" s="4">
@@ -11368,14 +11368,14 @@
         <v>44824</v>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>W(63/22)</v>
       </c>
       <c r="D192">
         <v>8</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_22</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -11393,10 +11393,10 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N192" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AP192" s="4">
@@ -11414,14 +11414,14 @@
         <v>44824</v>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>F(64/23)</v>
       </c>
       <c r="D193">
         <v>8</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8_23</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -11439,10 +11439,10 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N193" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AK193" s="4">
@@ -11517,31 +11517,31 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -11833,31 +11833,31 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -12000,31 +12000,31 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -12392,31 +12392,31 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -13020,31 +13020,31 @@
         <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -13349,31 +13349,31 @@
         <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -15494,31 +15494,31 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -15697,31 +15697,31 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -19091,16 +19091,16 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19401,16 +19401,16 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -19559,16 +19559,16 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -19942,16 +19942,16 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -20566,16 +20566,16 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -20877,16 +20877,16 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -22976,16 +22976,16 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -23168,16 +23168,16 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -26591,64 +26591,64 @@
         <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>
@@ -27141,64 +27141,64 @@
         <v>9</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -27431,64 +27431,64 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -28107,64 +28107,64 @@
         <v>9</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -29172,64 +29172,64 @@
         <v>9</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
@@ -29730,64 +29730,64 @@
         <v>9</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
@@ -33280,64 +33280,64 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
@@ -33636,64 +33636,64 @@
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
